--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>English</t>
   </si>
@@ -212,10 +212,10 @@
     <t>taskTextRoleIntroText</t>
   </si>
   <si>
-    <t>{0}Hover over ability buttons for more information.&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>{0}鼠标悬停在技能按键上获取更多信息.&lt;/color&gt;&lt;/color&gt;</t>
+    <t>{0}Hold down the right mouse button over ability buttons for more information.&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>{0}在技能按键上长按鼠标右键获取更多信息.&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
     <t>HPSettings</t>
@@ -269,7 +269,7 @@
     <t>&lt;color=#FCDF04&gt;Random Game Start Position&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#FCDF04&gt;开启随即出生点&lt;/color&gt;</t>
+    <t>&lt;color=#FCDF04&gt;开启随机出生点&lt;/color&gt;</t>
   </si>
   <si>
     <t>separateCooldowns</t>
@@ -541,13 +541,13 @@
     <t>The Killing Curse:
 A spell which will kill any target it hits, except Harry
 If the spell hits Harry, you will die instead
-&lt;#FF0000FF&gt;Right click to shoot this spell in the direction of your cursor</t>
+&lt;#FF0000FF&gt;Press the F key to shoot this spell in the direction of your cursor</t>
   </si>
   <si>
     <t>阿瓦达索命咒:
 一个可以杀死除哈利以外所有人的咒语。
 如果咒语击中哈利，你就会死亡。
-&lt;#FF0000FF&gt;右击可朝光标方向射出此咒语</t>
+&lt;#FF0000FF&gt;按下F按键可朝光标方向射出此咒语</t>
   </si>
   <si>
     <t>ButtonTextAvadacadavra</t>
@@ -727,6 +727,108 @@
     <t>模组作者: &lt;color=#00ffff&gt;FangkuaiYa&lt;/color&gt;
 &lt;#FFFFFFFF&gt;原作者: &lt;#7289DAFF&gt;Hunter101#1337
 &lt;#FFFFFFFF&gt;美工:&lt;color=#5A5AAD&gt;賣蟑螂&lt;/color&gt;&lt;color=#D3A4FF&gt;NotKomi&lt;/color&gt; &amp; &lt;#E67E22FF&gt;PhasmoFireGod&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>DeluminatorTooltip</t>
+  </si>
+  <si>
+    <t>Deluminator:
+Toggles the status of the lights (expect Fungle).</t>
+  </si>
+  <si>
+    <t>熄灯器:
+能够破坏灯光(除Fungle地图).</t>
+  </si>
+  <si>
+    <t>ElderWandTooltip</t>
+  </si>
+  <si>
+    <t>Elder Wand:
+If you are an Impostor, this
+item will reset your cooldowns to zero.
+Otherwise, you will get a single use button
+to kill anyone you think might be an Impostor</t>
+  </si>
+  <si>
+    <t>老魔杖:
+如果你是内鬼，你可以通过它重置你的冷却时间。
+反之则会获得一次杀死任何人的机会</t>
+  </si>
+  <si>
+    <t>GhostStoneTooltip</t>
+  </si>
+  <si>
+    <t>Resurrection Stone:
+Allows you to see ghosts.
+&lt;#FF0000FF&gt;This item cannot be consumed.</t>
+  </si>
+  <si>
+    <t>回魂石：
+可以让你看到灵魂玩家。
+&lt;#FF0000FF&gt;该物品为非消耗品.</t>
+  </si>
+  <si>
+    <t>MaraudersMapTooltip</t>
+  </si>
+  <si>
+    <t>Marauder's Map:
+Temporarily zooms out
+the camera. {0}s duration.</t>
+  </si>
+  <si>
+    <t>活点地图:
+扩大你的视野
+持续{0}秒.</t>
+  </si>
+  <si>
+    <t>PhiloStoneTooltip</t>
+  </si>
+  <si>
+    <t>Philosopher's Stone:
+This item will revive you when you die.
+&lt;#FF0000FF&gt;This item will be automatically consumed.</t>
+  </si>
+  <si>
+    <t>魔法石:
+当你死亡时,它会使你复活.
+&lt;#FF0000FF&gt;该物品会自动消耗的.</t>
+  </si>
+  <si>
+    <t>PortKeyTooltip</t>
+  </si>
+  <si>
+    <t>Port Key:
+Teleports you to\nthe emergency button.</t>
+  </si>
+  <si>
+    <t>门钥匙:
+使用后会将你传送到紧急会议的按钮旁边.</t>
+  </si>
+  <si>
+    <t>SortingHatTooltip</t>
+  </si>
+  <si>
+    <t>Sorting Hat:
+Reveals the role of the targeted player.
+&lt;#FF0000FF&gt;Can only be used in meetings!</t>
+  </si>
+  <si>
+    <t>分院帽:
+显示目标玩家的职业.
+&lt;#FF0000FF&gt;只能在会议中使用!</t>
+  </si>
+  <si>
+    <t>TheGoldenSnitchTooltip</t>
+  </si>
+  <si>
+    <t>The Golden Snitch:
+Forces all votes onto a targeted player.
+&lt;#FF0000FF&gt;Can only be used in meetings!</t>
+  </si>
+  <si>
+    <t>金色飞贼:
+将所有选票强制分配给目标玩家.
+&lt;#FF0000FF&gt;只能在会议中使用!</t>
   </si>
 </sst>
 </file>
@@ -1842,8 +1944,8 @@
   <sheetPr/>
   <dimension ref="A1:Z234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
-      <selection activeCell="O78" sqref="O78"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15"/>
@@ -4715,9 +4817,13 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+    <row r="87" ht="28.5" spans="1:26">
+      <c r="A87" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4730,7 +4836,9 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
+      <c r="O87" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
@@ -4743,9 +4851,13 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+    <row r="88" ht="71.25" spans="1:26">
+      <c r="A88" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4758,7 +4870,9 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
+      <c r="O88" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -4771,9 +4885,13 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+    <row r="89" ht="42.75" spans="1:26">
+      <c r="A89" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4786,7 +4904,9 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
+      <c r="O89" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
@@ -4799,9 +4919,13 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+    <row r="90" ht="42.75" spans="1:26">
+      <c r="A90" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4814,7 +4938,9 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
+      <c r="O90" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
@@ -4827,9 +4953,13 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+    <row r="91" ht="42.75" spans="1:26">
+      <c r="A91" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4842,7 +4972,9 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
+      <c r="O91" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
@@ -4855,9 +4987,13 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+    <row r="92" ht="28.5" spans="1:26">
+      <c r="A92" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4870,7 +5006,9 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
+      <c r="O92" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
@@ -4883,9 +5021,13 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+    <row r="93" ht="42.75" spans="1:26">
+      <c r="A93" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4898,7 +5040,9 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
+      <c r="O93" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
@@ -4911,9 +5055,13 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+    <row r="94" ht="42.75" spans="1:26">
+      <c r="A94" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4926,7 +5074,9 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
+      <c r="O94" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1319B361-C8EE-2F42-AAEC-A24217EBB165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colors" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="318">
   <si>
     <t>English</t>
   </si>
@@ -197,162 +203,102 @@
     <t>{0} was The {1}.</t>
   </si>
   <si>
-    <t>{0} 的身份是 {1}.</t>
-  </si>
-  <si>
     <t>taskTextRoleText</t>
   </si>
   <si>
     <t>{0}Role: {1}&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
-    <t>{0}职业: {1}&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>taskTextRoleIntroText</t>
   </si>
   <si>
     <t>{0}Hold down the right mouse button over ability buttons for more information.&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
-    <t>{0}在技能按键上长按鼠标右键获取更多信息.&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>HPSettings</t>
   </si>
   <si>
     <t>&lt;color=#FFF319&gt;Harry Potter &lt;color=#FC0404&gt;Settings&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#FFF319&gt;哈利波特&lt;color=#FC0404&gt;设置&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>enableModRole</t>
   </si>
   <si>
     <t>&lt;color=#FC0404&gt;Enable Mod Role&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#FC0404&gt;启用模组职业&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>orderOfTheImp</t>
   </si>
   <si>
     <t>&lt;color=#FCDF04&gt;Order of the Impostors&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#FCDF04&gt;只剩麻瓜时内鬼直接胜利&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>spellsInVents</t>
   </si>
   <si>
     <t>&lt;color=#FCDF04&gt;Can Spells be Used In Vents&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#FCDF04&gt;可以在管道中使用咒语&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>showPopups</t>
   </si>
   <si>
     <t>&lt;color=#FCDF04&gt;Show Info Popups/Tooltips&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#FCDF04&gt;显示菜单/工具提示信息&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>randomGameStartPosition</t>
   </si>
   <si>
     <t>&lt;color=#FCDF04&gt;Random Game Start Position&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#FCDF04&gt;开启随机出生点&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>separateCooldowns</t>
   </si>
   <si>
     <t>&lt;color=#FCDF04&gt;Shared Voldemort Cooldowns&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#FCDF04&gt;伏地魔击杀与技能冷却时间共享&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>CooldownSettings</t>
   </si>
   <si>
     <t>&lt;color=#04FC9D&gt;Cooldown &lt;color=#FC0404&gt;Settings&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#04FC9D&gt;冷却时间&lt;color=#FC0404&gt;设置&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>beerDuration</t>
   </si>
   <si>
     <t>&lt;color=#04A9FC&gt;Butter Beer Duration&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#04A9FC&gt;黄油啤酒效果持续时间&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>hourglassTimer</t>
   </si>
   <si>
-    <t>&lt;color=#04A9FC&gt;Time Turner Timer&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;时间转换器倒流时间&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>mapDuration</t>
   </si>
   <si>
     <t>&lt;color=#04A9FC&gt;Marauders Map Duration&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#04A9FC&gt;活点地图持续时间&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>imperioDuration</t>
   </si>
   <si>
     <t>&lt;color=#04A9FC&gt;Imperio Duration&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#04A9FC&gt;夺魂咒持续时间&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>defensiveDuelistCooldown</t>
   </si>
   <si>
     <t>&lt;color=#04A9FC&gt;Defensive Duelist Cooldown&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#04A9FC&gt;防御式决斗冷却时间&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>defensiveDuelistDuration</t>
   </si>
   <si>
-    <t>&lt;color=#04A9FC&gt;Defensive Duelist Duration&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;防御式决斗持续时间&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>invisCloakCooldown</t>
   </si>
   <si>
     <t>&lt;color=#04A9FC&gt;Invisibility Cloak Cooldown&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#04A9FC&gt;隐身斗篷冷却时间&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>invisCloakDuration</t>
   </si>
   <si>
@@ -368,18 +314,12 @@
     <t>&lt;color=#04A9FC&gt;Time Turner Cooldown&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#04A9FC&gt;时间转换器冷却时间&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>crucioCooldown</t>
   </si>
   <si>
     <t>&lt;color=#04A9FC&gt;Crucio Cooldown&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#04A9FC&gt;钻心剜骨咒冷却时间&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>crucioDuration</t>
   </si>
   <si>
@@ -402,9 +342,6 @@
   </si>
   <si>
     <t>You picked up an item! Press 'C' to open your Inventory.</t>
-  </si>
-  <si>
-    <t>你捡到了一件物品！按“C”打开库存。</t>
   </si>
   <si>
     <t>CrucioTooltipText</t>
@@ -415,11 +352,6 @@
 &lt;#FF0000FF&gt;Right click to shoot this spell in the direction of your cursor</t>
   </si>
   <si>
-    <t>钻心剜骨咒：
-一个可以让目标玩家失明并眩晕的咒语。
-&lt;#FF0000FF&gt;右击可以朝光标的方向射出该咒语</t>
-  </si>
-  <si>
     <t>ImperioCrucioTooltipText</t>
   </si>
   <si>
@@ -428,11 +360,6 @@
 &lt;#FF0000FF&gt;The mind-controlled player MUST be previously 'marked'</t>
   </si>
   <si>
-    <t>夺魂咒：
-打开菜单，可以让你选择一名玩家进行心灵控制。
-&lt;#FF0000FF&gt;前提是该被控制的玩家需要被标记</t>
-  </si>
-  <si>
     <t>MarkCrucioTooltipText</t>
   </si>
   <si>
@@ -440,25 +367,15 @@
 Will 'mark' the target player to make them vulnerable to 'Imperio'</t>
   </si>
   <si>
-    <t>标记：
-标记一名玩家，可以对该玩家使用夺魂咒</t>
-  </si>
-  <si>
     <t>ButtonTextCrucio</t>
   </si>
   <si>
-    <t>Crucio</t>
-  </si>
-  <si>
     <t>钻心剜骨咒</t>
   </si>
   <si>
     <t>ButtonTextImperio</t>
   </si>
   <si>
-    <t>Imperio</t>
-  </si>
-  <si>
     <t>夺魂咒</t>
   </si>
   <si>
@@ -466,9 +383,6 @@
   </si>
   <si>
     <t>Mark Victim</t>
-  </si>
-  <si>
-    <t>标记</t>
   </si>
   <si>
     <t>CloakTooltipText</t>
@@ -476,10 +390,6 @@
   <si>
     <t>Cloak:
 Will make you invisible for {0}s</t>
-  </si>
-  <si>
-    <t>隐身斗篷:
-会让你隐形{0}秒</t>
   </si>
   <si>
     <t>ButtonTextCloak</t>
@@ -499,11 +409,6 @@
 This will bring you back to life, unless you were killed by a spell</t>
   </si>
   <si>
-    <t>时间转换器:
-延迟{0}秒后，你将会倒流到原来的位置。
-它可以让你复活，除非被咒语杀死</t>
-  </si>
-  <si>
     <t>ButtonTextTimeTurner</t>
   </si>
   <si>
@@ -519,11 +424,6 @@
     <t>Defensive Duelist:
 Will make you invulnerable to spells and kills for {0}s
 While this ability is active, you cannot move</t>
-  </si>
-  <si>
-    <t>防御式决斗：
-将使你在{0}秒内免疫击杀与咒语的伤害。
-处于该能力期间时，无法移动</t>
   </si>
   <si>
     <t>ButtonTextDefense</t>
@@ -544,203 +444,690 @@
 &lt;#FF0000FF&gt;Press the F key to shoot this spell in the direction of your cursor</t>
   </si>
   <si>
+    <t>ButtonTextAvadacadavra</t>
+  </si>
+  <si>
+    <t>Avadacadavra</t>
+  </si>
+  <si>
+    <t>阿瓦达索命咒</t>
+  </si>
+  <si>
+    <t>CloseMenuTooltipText</t>
+  </si>
+  <si>
+    <t>Close Menu</t>
+  </si>
+  <si>
+    <t>关闭菜单</t>
+  </si>
+  <si>
+    <t>CoStunPlayerDurationText</t>
+  </si>
+  <si>
+    <t>{0}You are stunned until the next meeting.&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>CoActivateButterBeerDurationText</t>
+  </si>
+  <si>
+    <t>{0}You are drunk on Butter Beer! {1}s remaining&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>CoActivateHourglassDurationText</t>
+  </si>
+  <si>
+    <t>{0}Time Turner will activate in {1}s&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>CoFakeKillPopup</t>
+  </si>
+  <si>
+    <t>You were revived by The Philosopher's Stone!</t>
+  </si>
+  <si>
+    <t>RevealRolePopup</t>
+  </si>
+  <si>
+    <t>{0} has had their role revealed!</t>
+  </si>
+  <si>
+    <t>CoDefensiveDuelistDurationText</t>
+  </si>
+  <si>
+    <t>{0}Defensive Duelist: {1}s remaining&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>CoInvisPlayerDurationText</t>
+  </si>
+  <si>
+    <t>{0}Invisibility Cloak: {1}s remaining&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>CoBlindPlayerPopup</t>
+  </si>
+  <si>
+    <t>You were blinded and frozen by a spell!</t>
+  </si>
+  <si>
+    <t>CoBlindPlayerDurationText</t>
+  </si>
+  <si>
+    <t>{0}You are blinded and frozen! {1}s remaining&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>CoControlPlayerDurationText</t>
+  </si>
+  <si>
+    <t>{0}You are mind-controlling "{1}"! {2}s remaining&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>CoControlPlayerPopup</t>
+  </si>
+  <si>
+    <t>You are being mind-controlled!</t>
+  </si>
+  <si>
+    <t>你被控制了!</t>
+  </si>
+  <si>
+    <t>KillPlayerPopup</t>
+  </si>
+  <si>
+    <t>When using his ability, Ron cannot be killed.
+Your cooldowns were reset.</t>
+  </si>
+  <si>
+    <t>KillPlayerPopup1</t>
+  </si>
+  <si>
+    <t>You tried to kill Harry with the Killing Curse!
+Because of Harry's passive ability, you are dead.</t>
+  </si>
+  <si>
+    <t>KillPlayerPopup2</t>
+  </si>
+  <si>
+    <t>You were hit by a spell!</t>
+  </si>
+  <si>
+    <t>你被咒语击中了!</t>
+  </si>
+  <si>
+    <t>ForceAllVotesPopup</t>
+  </si>
+  <si>
+    <t>All votes were forced onto a specific player!</t>
+  </si>
+  <si>
+    <t>所有的投票都被强制分配给了一个特定的玩家!</t>
+  </si>
+  <si>
+    <t>ImpostorTextHP</t>
+  </si>
+  <si>
+    <t>Welcome To &lt;color=#FA9E11&gt;Harry Potter&lt;/color&gt;!</t>
+  </si>
+  <si>
+    <t>PingTracker_Update</t>
+  </si>
+  <si>
+    <t>Created by: &lt;color=#00ffff&gt;FangkuaiYa&lt;/color&gt;
+&lt;#FFFFFFFF&gt;Original Design by: &lt;#7289DAFF&gt;Hunter101#1337
+&lt;#FFFFFFFF&gt;Art by:&lt;color=#5A5AAD&gt;賣蟑螂&lt;/color&gt;&lt;color=#D3A4FF&gt;NotKomi&lt;/color&gt; &amp; &lt;#E67E22FF&gt;PhasmoFireGod&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>DeluminatorTooltip</t>
+  </si>
+  <si>
+    <t>ElderWandTooltip</t>
+  </si>
+  <si>
+    <t>GhostStoneTooltip</t>
+  </si>
+  <si>
+    <t>MaraudersMapTooltip</t>
+  </si>
+  <si>
+    <t>PhiloStoneTooltip</t>
+  </si>
+  <si>
+    <t>Philosopher's Stone:
+This item will revive you when you die.
+&lt;#FF0000FF&gt;This item will be automatically consumed.</t>
+  </si>
+  <si>
+    <t>PortKeyTooltip</t>
+  </si>
+  <si>
+    <t>Port Key:
+Teleports you to\nthe emergency button.</t>
+  </si>
+  <si>
+    <t>SortingHatTooltip</t>
+  </si>
+  <si>
+    <t>Sorting Hat:
+Reveals the role of the targeted player.
+&lt;#FF0000FF&gt;Can only be used in meetings!</t>
+  </si>
+  <si>
+    <t>TheGoldenSnitchTooltip</t>
+  </si>
+  <si>
+    <t>The Golden Snitch:
+Forces all votes onto a targeted player.
+&lt;#FF0000FF&gt;Can only be used in meetings!</t>
+  </si>
+  <si>
+    <t>貝拉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>门钥匙:
+使用后会将你传送到紧急会议的按钮旁边.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>榮恩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙麗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛地魔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻瓜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪惡巫師</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} 的身份是 {1}.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}职业: {1}&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}職業: {1}&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}在技能按键上长按鼠标右键获取更多信息.&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}在技能按鍵上上長按右鍵獲取更多訊息.&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFF319&gt;哈利波特&lt;color=#FC0404&gt;设置&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFF319&gt;哈利波特&lt;color=#FC0404&gt;設定&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FC0404&gt;启用模组职业&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FC0404&gt;啟用模組職業&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;只剩麻瓜时内鬼直接胜利&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;只剩麻瓜時邪惡巫師獲勝&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;可以在管道中使用咒语&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;可以在通風口內使用咒語&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;显示菜单/工具提示信息&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;顯示選單/工具提示訊息&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;开启随机出生点&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;啟用隨機出生點&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;伏地魔击杀与技能冷却时间共享&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;佛地魔擊殺與技能冷卻時間共享&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04FC9D&gt;冷却时间&lt;color=#FC0404&gt;设置&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04FC9D&gt;冷卻時間&lt;color=#FC0404&gt;設定&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模组作者: &lt;color=#00ffff&gt;FangkuaiYa&lt;/color&gt;
+&lt;#FFFFFFFF&gt;原作者: &lt;#7289DAFF&gt;Hunter101#1337
+&lt;#FFFFFFFF&gt;美工:&lt;color=#5A5AAD&gt;賣蟑螂&lt;/color&gt;&lt;color=#D3A4FF&gt;NotKomi&lt;/color&gt; &amp; &lt;#E67E22FF&gt;PhasmoFireGod&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎来到&lt;color=#FA9E11&gt;哈利波特&lt;/color&gt;模组!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎來到&lt;color=#FA9E11&gt;哈利波特&lt;/color&gt;模组!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>關閉選單</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;黄油啤酒效果持续时间&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;奶油啤酒效果持續時間&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;时间转换器倒流时间&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你捡到了一件物品！按“C”打开库存。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你撿到了一件物品! 按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"C"打開庫存</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>標記</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>索命咒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}你喝了黄油啤酒! 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}你喝下了奶油啤酒! 剩餘{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被魔法石复活了!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金色飞贼:
+将所有选票强制分配给目标玩家.
+&lt;#FF0000FF&gt;只能在会议中使用!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金探子:
+將所有投票強制分配給目標玩家.
+&lt;#FF0000FF&gt;只能在會議中使用!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被控制了!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法石:
+当你死亡时,它会使你复活.
+&lt;#FF0000FF&gt;该物品会自动消耗的.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>魔法石:
+當你死亡時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,它會將你復活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;#FF0000FF&gt;該物品為消耗品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你试图对哈利使用咒语将其击杀！
+由于哈利的被动能力，你已经死亡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你試圖對哈利使用咒語將其殺死!
+由於哈利的被動能力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>, 你已經死亡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被咒語擊中了!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有投票都被強制分配給了一個特定玩家!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你撿到了一個陷阱!無法預測的效果降臨!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} 已经揭露了他们的职业!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} 已經揭露了他們的職業!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要蜘蛛!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;钻心剜骨咒冷却时间&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺魂咒：
+打开菜单，可以让你选择一名玩家进行心灵控制。
+&lt;#FF0000FF&gt;前提是该被控制的玩家需要被标记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蠻橫咒：
+打開選單，可以讓你選擇一名玩家進行心靈控制。
+&lt;#FF0000FF&gt;前提是該被控制的玩家需要被標記</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记：
+标记一名玩家，可以对该玩家使用夺魂咒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>標記：
+標記一名玩家，可以對該玩家使用奪魂咒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有善與惡。只有力量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我發誓，我做的不是好事</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;Defensive Duelist Duration&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;防御式决斗冷却时间&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;防禦式決鬥冷卻時間&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;防御式决斗持续时间&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;防禦式決鬥持續時間&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們都可能會死</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crucio</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷刑咒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imperio</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蠻橫咒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻心剜骨咒：
+一个可以让目标玩家失明并眩晕的咒语。
+&lt;#FF0000FF&gt;右击可以朝光标的方向射出该咒语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分院帽:
+显示目标玩家的职业.
+&lt;#FF0000FF&gt;只能在会议中使用!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分類帽:
+顯示目標玩家的職業.
+&lt;#FF0000FF&gt;只能在會議中使用!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>港口鑰:
+使用後會將你傳送至緊急會議按鈕旁.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marauder's Map:
+Temporarily zooms out
+the camera. {0}s duration.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活点地图:
+扩大你的视野
+持续{0}秒.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>劫盜地圖:
+擴大你的視野
+持續{0}秒.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}你在下次会议之前都会报错昏迷状态.&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}你在下次會議前都在昏迷狀態.&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>阿瓦达索命咒:
 一个可以杀死除哈利以外所有人的咒语。
 如果咒语击中哈利，你就会死亡。
 &lt;#FF0000FF&gt;按下F按键可朝光标方向射出此咒语</t>
-  </si>
-  <si>
-    <t>ButtonTextAvadacadavra</t>
-  </si>
-  <si>
-    <t>Avadacadavra</t>
-  </si>
-  <si>
-    <t>阿瓦达索命咒</t>
-  </si>
-  <si>
-    <t>CloseMenuTooltipText</t>
-  </si>
-  <si>
-    <t>Close Menu</t>
-  </si>
-  <si>
-    <t>关闭菜单</t>
-  </si>
-  <si>
-    <t>CoStunPlayerDurationText</t>
-  </si>
-  <si>
-    <t>{0}You are stunned until the next meeting.&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>{0}你在下次会议之前都会报错昏迷状态.&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>CoActivateButterBeerDurationText</t>
-  </si>
-  <si>
-    <t>{0}You are drunk on Butter Beer! {1}s remaining&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>{0}你喝了黄油啤酒! 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>CoActivateHourglassDurationText</t>
-  </si>
-  <si>
-    <t>{0}Time Turner will activate in {1}s&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>{0}时间转换器将在{1}秒内生效&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>CoFakeKillPopup</t>
-  </si>
-  <si>
-    <t>You were revived by The Philosopher's Stone!</t>
-  </si>
-  <si>
-    <t>你被魔法石复活了!</t>
-  </si>
-  <si>
-    <t>RevealRolePopup</t>
-  </si>
-  <si>
-    <t>{0} has had their role revealed!</t>
-  </si>
-  <si>
-    <t>{0} 已经揭露了他们的职业!</t>
-  </si>
-  <si>
-    <t>CoDefensiveDuelistDurationText</t>
-  </si>
-  <si>
-    <t>{0}Defensive Duelist: {1}s remaining&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>{0}防御式决斗: 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>CoInvisPlayerDurationText</t>
-  </si>
-  <si>
-    <t>{0}Invisibility Cloak: {1}s remaining&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>{0}隐形斗篷: 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>CoBlindPlayerPopup</t>
-  </si>
-  <si>
-    <t>You were blinded and frozen by a spell!</t>
-  </si>
-  <si>
-    <t>你被咒语弄瞎了眼睛并且动不了了!</t>
-  </si>
-  <si>
-    <t>CoBlindPlayerDurationText</t>
-  </si>
-  <si>
-    <t>{0}You are blinded and frozen! {1}s remaining&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>{0}你被冻僵了! 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>CoControlPlayerDurationText</t>
-  </si>
-  <si>
-    <t>{0}You are mind-controlling "{1}"! {2}s remaining&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>{0}你被 "{1}" 控制了! 剩余{2}秒&lt;/color&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>CoControlPlayerPopup</t>
-  </si>
-  <si>
-    <t>You are being mind-controlled!</t>
-  </si>
-  <si>
-    <t>你被控制了!</t>
-  </si>
-  <si>
-    <t>KillPlayerPopup</t>
-  </si>
-  <si>
-    <t>When using his ability, Ron cannot be killed.
-Your cooldowns were reset.</t>
-  </si>
-  <si>
-    <t>罗恩在使用技能，你无法击杀他。
-你的冷却已重置。</t>
-  </si>
-  <si>
-    <t>KillPlayerPopup1</t>
-  </si>
-  <si>
-    <t>You tried to kill Harry with the Killing Curse!
-Because of Harry's passive ability, you are dead.</t>
-  </si>
-  <si>
-    <t>你试图对哈利使用咒语将其击杀！
-由于哈利的被动能力，你已经死亡。</t>
-  </si>
-  <si>
-    <t>KillPlayerPopup2</t>
-  </si>
-  <si>
-    <t>You were hit by a spell!</t>
-  </si>
-  <si>
-    <t>你被咒语击中了!</t>
-  </si>
-  <si>
-    <t>ForceAllVotesPopup</t>
-  </si>
-  <si>
-    <t>All votes were forced onto a specific player!</t>
-  </si>
-  <si>
-    <t>所有的投票都被强制分配给了一个特定的玩家!</t>
-  </si>
-  <si>
-    <t>ImpostorTextHP</t>
-  </si>
-  <si>
-    <t>Welcome To &lt;color=#FA9E11&gt;Harry Potter&lt;/color&gt;!</t>
-  </si>
-  <si>
-    <t>欢迎来到&lt;color=#FA9E11&gt;哈利波特&lt;/color&gt;模组!</t>
-  </si>
-  <si>
-    <t>PingTracker_Update</t>
-  </si>
-  <si>
-    <t>Created by: &lt;color=#00ffff&gt;FangkuaiYa&lt;/color&gt;
-&lt;#FFFFFFFF&gt;Original Design by: &lt;#7289DAFF&gt;Hunter101#1337
-&lt;#FFFFFFFF&gt;Art by:&lt;color=#5A5AAD&gt;賣蟑螂&lt;/color&gt;&lt;color=#D3A4FF&gt;NotKomi&lt;/color&gt; &amp; &lt;#E67E22FF&gt;PhasmoFireGod&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>模组作者: &lt;color=#00ffff&gt;FangkuaiYa&lt;/color&gt;
-&lt;#FFFFFFFF&gt;原作者: &lt;#7289DAFF&gt;Hunter101#1337
-&lt;#FFFFFFFF&gt;美工:&lt;color=#5A5AAD&gt;賣蟑螂&lt;/color&gt;&lt;color=#D3A4FF&gt;NotKomi&lt;/color&gt; &amp; &lt;#E67E22FF&gt;PhasmoFireGod&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>DeluminatorTooltip</t>
-  </si>
-  <si>
-    <t>Deluminator:
-Toggles the status of the lights (expect Fungle).</t>
-  </si>
-  <si>
-    <t>熄灯器:
-能够破坏灯光(除Fungle地图).</t>
-  </si>
-  <si>
-    <t>ElderWandTooltip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>索命咒:
+一個能夠使哈利以外的人死亡的咒語。
+如果咒語擊中哈利，你會死亡。
+&lt;#FF0000FF&gt;按下F鍵可朝游標方向射出此咒語</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防禦式決鬥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御式决斗：
+将使你在{0}秒内免疫击杀与咒语的伤害。
+处于该能力期间时，无法移动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防禦式決鬥：
+使你在{0}秒内免疫擊殺與咒語的傷害。
+處於該能力期間，無法移動</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;Time Turner Timer&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>時光器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间转换器:
+延迟{0}秒后，你将会倒流到原来的位置。
+它可以让你复活，除非被咒语杀死</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>時光器:
+延遲{0}秒後，你將會到流到原來的位置。
+它可以使你復活，除非你被咒語所殺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隱身斗篷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身斗篷:
+会让你隐形{0}秒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隱身斗篷:
+會讓你隱身{0}秒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resurrection Stone:
+Allows you to see ghosts.
+&lt;#FF0000FF&gt;This item cannot be consumed.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回魂石：
+可以让你看到灵魂玩家。
+&lt;#FF0000FF&gt;该物品为非消耗品.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生石：
+可以讓你看見玩家的靈魂。
+&lt;#FF0000FF&gt;該物品為非消耗品.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Elder Wand:
@@ -748,100 +1135,162 @@
 item will reset your cooldowns to zero.
 Otherwise, you will get a single use button
 to kill anyone you think might be an Impostor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>老魔杖:
 如果你是内鬼，你可以通过它重置你的冷却时间。
 反之则会获得一次杀死任何人的机会</t>
-  </si>
-  <si>
-    <t>GhostStoneTooltip</t>
-  </si>
-  <si>
-    <t>Resurrection Stone:
-Allows you to see ghosts.
-&lt;#FF0000FF&gt;This item cannot be consumed.</t>
-  </si>
-  <si>
-    <t>回魂石：
-可以让你看到灵魂玩家。
-&lt;#FF0000FF&gt;该物品为非消耗品.</t>
-  </si>
-  <si>
-    <t>MaraudersMapTooltip</t>
-  </si>
-  <si>
-    <t>Marauder's Map:
-Temporarily zooms out
-the camera. {0}s duration.</t>
-  </si>
-  <si>
-    <t>活点地图:
-扩大你的视野
-持续{0}秒.</t>
-  </si>
-  <si>
-    <t>PhiloStoneTooltip</t>
-  </si>
-  <si>
-    <t>Philosopher's Stone:
-This item will revive you when you die.
-&lt;#FF0000FF&gt;This item will be automatically consumed.</t>
-  </si>
-  <si>
-    <t>魔法石:
-当你死亡时,它会使你复活.
-&lt;#FF0000FF&gt;该物品会自动消耗的.</t>
-  </si>
-  <si>
-    <t>PortKeyTooltip</t>
-  </si>
-  <si>
-    <t>Port Key:
-Teleports you to\nthe emergency button.</t>
-  </si>
-  <si>
-    <t>门钥匙:
-使用后会将你传送到紧急会议的按钮旁边.</t>
-  </si>
-  <si>
-    <t>SortingHatTooltip</t>
-  </si>
-  <si>
-    <t>Sorting Hat:
-Reveals the role of the targeted player.
-&lt;#FF0000FF&gt;Can only be used in meetings!</t>
-  </si>
-  <si>
-    <t>分院帽:
-显示目标玩家的职业.
-&lt;#FF0000FF&gt;只能在会议中使用!</t>
-  </si>
-  <si>
-    <t>TheGoldenSnitchTooltip</t>
-  </si>
-  <si>
-    <t>The Golden Snitch:
-Forces all votes onto a targeted player.
-&lt;#FF0000FF&gt;Can only be used in meetings!</t>
-  </si>
-  <si>
-    <t>金色飞贼:
-将所有选票强制分配给目标玩家.
-&lt;#FF0000FF&gt;只能在会议中使用!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接骨木魔杖:
+如果你是偽裝者，你可以通過它重置你的冷卻時間。
+如果不是，你會獲得一次殺死任何人的機會</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deluminator:
+Toggles the status of the lights (expect Fungle).</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熄灯器:
+能够破坏灯光(除Fungle地图).</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熄燈器:
+能夠改變燈光狀態(除Fungle地圖).</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗恩在使用技能，你无法击杀他。
+你的冷却已重置。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>榮恩在使用技能，你無法殺死他。
+你的冷却已重置。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;時光器到流時間&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;夺魂咒持续时间&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;蠻橫咒持續時間&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;活点地图持续时间&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;劫盜地圖持續時間&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;隐身斗篷冷却时间&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;隱身斗篷冷卻時間&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;隱身斗篷持續時間&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;时间转换器冷却时间&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;時光器冷卻時間&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷刑咒：
+一個可以使目標失明並眩暈的咒語。
+&lt;#FF0000FF&gt;右鍵可以朝游標方向射出該咒語</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;酷刑咒冷卻時間&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;酷刑咒持續時間&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被魔法石復活了!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}时间转换器将在{1}秒内生效&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}時光器將在{1}秒内生效&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}防御式决斗: 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}防禦式決鬥: 剩餘{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}隐形斗篷: 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}隱形斗篷: 剩餘{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被咒语弄瞎了眼睛并且动不了了!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被咒語弄瞎了雙眼並且無法移動!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}你被冻僵了! 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}你被凍僵了! 剩餘{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}你被 "{1}" 控制了! 剩余{2}秒&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}你被 "{1}" 控制了! 剩餘{2}秒&lt;/color&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模組作者: &lt;color=#00ffff&gt;FangkuaiYa&lt;/color&gt;
+&lt;#FFFFFFFF&gt;原作者: &lt;#7289DAFF&gt;Hunter101#1337
+&lt;#FFFFFFFF&gt;美術:&lt;color=#5A5AAD&gt;賣蟑螂&lt;/color&gt;&lt;color=#D3A4FF&gt;NotKomi(繁體中文翻譯)&lt;/color&gt; &amp; &lt;#E67E22FF&gt;PhasmoFireGod&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -862,352 +1311,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1215,253 +1341,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1469,90 +1353,160 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1563,7 +1517,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1591,154 +1545,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1936,41 +1776,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="O41" workbookViewId="0">
+      <selection activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="96.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="7.42857142857143" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" customWidth="1"/>
-    <col min="5" max="5" width="12.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="8.14285714285714" customWidth="1"/>
-    <col min="7" max="7" width="8.42857142857143" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.71428571428571" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="7.14285714285714" customWidth="1"/>
-    <col min="13" max="13" width="10.1428571428571" customWidth="1"/>
-    <col min="14" max="14" width="8.71428571428571" customWidth="1"/>
-    <col min="15" max="15" width="79.2857142857143" customWidth="1"/>
-    <col min="16" max="16" width="9.85714285714286" customWidth="1"/>
-    <col min="17" max="17" width="5.28571428571429" customWidth="1"/>
-    <col min="18" max="26" width="7.85714285714286" customWidth="1"/>
+    <col min="1" max="1" width="36.9921875" customWidth="1"/>
+    <col min="2" max="2" width="96.72265625" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.14453125" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="8.203125" customWidth="1"/>
+    <col min="7" max="7" width="8.47265625" customWidth="1"/>
+    <col min="8" max="8" width="6.9921875" customWidth="1"/>
+    <col min="9" max="9" width="7.93359375" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.01171875" customWidth="1"/>
+    <col min="12" max="12" width="7.12890625" customWidth="1"/>
+    <col min="13" max="13" width="10.0859375" customWidth="1"/>
+    <col min="14" max="14" width="8.7421875" customWidth="1"/>
+    <col min="15" max="15" width="79.234375" customWidth="1"/>
+    <col min="16" max="16" width="73.3125" customWidth="1"/>
+    <col min="17" max="17" width="5.24609375" customWidth="1"/>
+    <col min="18" max="26" width="7.80078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2030,7 +1870,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2052,7 +1892,9 @@
       <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -2064,7 +1906,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" ht="28.5" spans="1:26">
+    <row r="3" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2098,7 +1940,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,7 +1962,9 @@
       <c r="O4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -2132,7 +1976,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -2154,7 +1998,9 @@
       <c r="O5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -2166,7 +2012,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -2188,7 +2034,9 @@
       <c r="O6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -2200,7 +2048,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" ht="28.5" spans="1:26">
+    <row r="7" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2222,7 +2070,9 @@
       <c r="O7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -2234,7 +2084,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2256,7 +2106,9 @@
       <c r="O8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2268,7 +2120,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" ht="28.5" spans="1:26">
+    <row r="9" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -2290,7 +2142,9 @@
       <c r="O9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2302,7 +2156,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2324,7 +2178,9 @@
       <c r="O10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2336,7 +2192,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" ht="28.5" spans="1:26">
+    <row r="11" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2358,7 +2214,9 @@
       <c r="O11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -2370,7 +2228,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -2392,7 +2250,9 @@
       <c r="O12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -2404,7 +2264,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -2426,7 +2286,9 @@
       <c r="O13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -2438,7 +2300,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -2458,9 +2320,11 @@
       <c r="M14" s="3"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -2472,12 +2336,12 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2492,9 +2356,11 @@
       <c r="M15" s="3"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -2506,12 +2372,12 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2526,9 +2392,11 @@
       <c r="M16" s="3"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -2540,7 +2408,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2568,12 +2436,12 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2588,9 +2456,11 @@
       <c r="M18" s="3"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P18" s="1"/>
+        <v>198</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2602,12 +2472,12 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2622,9 +2492,11 @@
       <c r="M19" s="4"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P19" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -2636,12 +2508,12 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2656,9 +2528,11 @@
       <c r="M20" s="4"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -2670,12 +2544,12 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2690,9 +2564,11 @@
       <c r="M21" s="4"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P21" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -2704,12 +2580,12 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2724,9 +2600,11 @@
       <c r="M22" s="4"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P22" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2738,12 +2616,12 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2758,9 +2636,11 @@
       <c r="M23" s="4"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P23" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -2772,12 +2652,12 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2792,9 +2672,11 @@
       <c r="M24" s="4"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P24" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -2806,12 +2688,12 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2826,9 +2708,11 @@
       <c r="M25" s="4"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P25" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -2840,12 +2724,12 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2860,9 +2744,11 @@
       <c r="M26" s="4"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P26" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2874,12 +2760,12 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2894,9 +2780,11 @@
       <c r="M27" s="4"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P27" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2908,12 +2796,12 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2928,9 +2816,11 @@
       <c r="M28" s="4"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P28" s="1"/>
+        <v>294</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2942,12 +2832,12 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2962,9 +2852,11 @@
       <c r="M29" s="4"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="P29" s="1"/>
+        <v>292</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2976,12 +2868,12 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2996,9 +2888,11 @@
       <c r="M30" s="4"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P30" s="1"/>
+        <v>250</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -3010,12 +2904,12 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3030,9 +2924,11 @@
       <c r="M31" s="4"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P31" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -3044,12 +2940,12 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3064,9 +2960,11 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P32" s="1"/>
+        <v>296</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -3078,12 +2976,12 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3098,9 +2996,11 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P33" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -3112,12 +3012,12 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3132,9 +3032,11 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P34" s="1"/>
+        <v>299</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -3146,12 +3048,12 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3166,9 +3068,11 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P35" s="1"/>
+        <v>242</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -3180,12 +3084,12 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3200,9 +3104,11 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P36" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -3214,7 +3120,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3242,12 +3148,12 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3262,9 +3168,11 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P38" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -3276,12 +3184,12 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3296,9 +3204,11 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P39" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -3310,7 +3220,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3338,12 +3248,12 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" ht="42.75" spans="1:26">
+    <row r="41" spans="1:26" ht="36" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3358,9 +3268,11 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="P41" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -3372,12 +3284,12 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" ht="42.75" spans="1:26">
+    <row r="42" spans="1:26" ht="36" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3392,9 +3304,11 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="P42" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -3406,12 +3320,12 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" ht="28.5" spans="1:26">
+    <row r="43" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3426,9 +3340,11 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P43" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -3440,7 +3356,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3468,12 +3384,12 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3488,9 +3404,11 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P45" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -3502,12 +3420,12 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3522,9 +3440,11 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P46" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -3536,12 +3456,12 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3556,9 +3476,11 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="P47" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -3570,7 +3492,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3598,12 +3520,12 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" ht="28.5" spans="1:26">
+    <row r="49" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3618,9 +3540,11 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="P49" s="1"/>
+        <v>278</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -3632,7 +3556,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3660,12 +3584,12 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3680,9 +3604,11 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="P51" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -3694,7 +3620,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3722,12 +3648,12 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" ht="42.75" spans="1:26">
+    <row r="53" spans="1:26" ht="36" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3742,9 +3668,11 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P53" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
@@ -3756,7 +3684,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3784,12 +3712,12 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3804,9 +3732,11 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="P55" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -3818,7 +3748,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3846,12 +3776,12 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" ht="42.75" spans="1:26">
+    <row r="57" spans="1:26" ht="36" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3866,9 +3796,11 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P57" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -3880,7 +3812,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3908,12 +3840,12 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3928,9 +3860,11 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P59" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -3942,7 +3876,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3970,12 +3904,12 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" ht="57" spans="1:26">
+    <row r="61" spans="1:26" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3990,9 +3924,11 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="P61" s="1"/>
+        <v>268</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -4004,7 +3940,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4032,12 +3968,12 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -4052,9 +3988,11 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="P63" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -4066,7 +4004,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4094,12 +4032,12 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -4114,9 +4052,11 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P65" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -4128,7 +4068,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4156,12 +4096,12 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -4176,9 +4116,11 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P67" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -4190,12 +4132,12 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -4210,9 +4152,11 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P68" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -4224,12 +4168,12 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -4244,9 +4188,11 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="P69" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -4258,12 +4204,12 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -4278,9 +4224,11 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="P70" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -4292,12 +4240,12 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -4312,9 +4260,11 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="P71" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -4326,12 +4276,12 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -4346,9 +4296,11 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P72" s="1"/>
+        <v>307</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -4360,12 +4312,12 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -4380,9 +4332,11 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="P73" s="1"/>
+        <v>309</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -4394,12 +4348,12 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -4414,9 +4368,11 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="P74" s="1"/>
+        <v>311</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
@@ -4428,12 +4384,12 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -4448,9 +4404,11 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="P75" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
@@ -4462,12 +4420,12 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -4482,9 +4440,11 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P76" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
@@ -4496,12 +4456,12 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -4516,9 +4476,11 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="P77" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -4530,12 +4492,12 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" ht="28.5" spans="1:26">
+    <row r="78" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -4550,9 +4512,11 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="P78" s="1"/>
+        <v>289</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
@@ -4564,12 +4528,12 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" ht="28.5" spans="1:26">
+    <row r="79" spans="1:26" ht="27" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -4584,9 +4548,11 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P79" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
@@ -4598,12 +4564,12 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -4618,9 +4584,11 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P80" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
@@ -4632,12 +4600,12 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -4652,9 +4620,11 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="P81" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
@@ -4666,7 +4636,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4694,12 +4664,12 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -4714,9 +4684,11 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P83" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
@@ -4728,7 +4700,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4756,12 +4728,12 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" ht="71.25" spans="1:26">
+    <row r="85" spans="1:26" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4776,9 +4748,11 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P85" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
@@ -4790,7 +4764,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4817,12 +4791,12 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" ht="28.5" spans="1:26">
+    <row r="87" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -4837,9 +4811,11 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="P87" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
@@ -4851,12 +4827,12 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" ht="71.25" spans="1:26">
+    <row r="88" spans="1:26" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4871,9 +4847,11 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="P88" s="1"/>
+        <v>284</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
@@ -4885,12 +4863,12 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" ht="42.75" spans="1:26">
+    <row r="89" spans="1:26" ht="36" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4905,9 +4883,11 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="P89" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
@@ -4919,12 +4899,12 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" ht="42.75" spans="1:26">
+    <row r="90" spans="1:26" ht="36" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4939,9 +4919,11 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="P90" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
@@ -4953,12 +4935,12 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" ht="42.75" spans="1:26">
+    <row r="91" spans="1:26" ht="41.25" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4973,9 +4955,11 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="P91" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
@@ -4987,12 +4971,12 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" ht="28.5" spans="1:26">
+    <row r="92" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -5007,9 +4991,11 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="P92" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
@@ -5021,12 +5007,12 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" ht="42.75" spans="1:26">
+    <row r="93" spans="1:26" ht="36" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -5041,9 +5027,11 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="P93" s="1"/>
+        <v>260</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -5055,12 +5043,12 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" ht="42.75" spans="1:26">
+    <row r="94" spans="1:26" ht="36" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -5075,9 +5063,11 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="P94" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
@@ -5089,7 +5079,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5117,7 +5107,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5145,7 +5135,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5173,7 +5163,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5201,7 +5191,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5229,7 +5219,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5257,7 +5247,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5285,7 +5275,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5313,7 +5303,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5341,7 +5331,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5369,7 +5359,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5397,7 +5387,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5425,7 +5415,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5453,7 +5443,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5481,7 +5471,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5509,7 +5499,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5537,7 +5527,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5565,7 +5555,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5593,7 +5583,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5621,7 +5611,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5649,7 +5639,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5677,7 +5667,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5705,7 +5695,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5733,7 +5723,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5761,7 +5751,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5789,7 +5779,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5817,7 +5807,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5845,7 +5835,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5873,7 +5863,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5901,7 +5891,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5929,7 +5919,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5957,7 +5947,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5985,7 +5975,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6013,7 +6003,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6041,7 +6031,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6069,7 +6059,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6097,7 +6087,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6125,7 +6115,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6153,7 +6143,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6181,7 +6171,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6209,7 +6199,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6237,7 +6227,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6265,7 +6255,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6293,7 +6283,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6321,7 +6311,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6349,7 +6339,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6377,7 +6367,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6405,7 +6395,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6433,7 +6423,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6461,7 +6451,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6489,7 +6479,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6517,7 +6507,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6545,7 +6535,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6573,7 +6563,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6601,7 +6591,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6629,7 +6619,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6657,7 +6647,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6685,7 +6675,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6713,7 +6703,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6741,7 +6731,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6769,7 +6759,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6797,7 +6787,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6825,7 +6815,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6853,7 +6843,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6881,7 +6871,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6909,7 +6899,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6937,7 +6927,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6965,7 +6955,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6993,7 +6983,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7021,7 +7011,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7049,7 +7039,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7077,7 +7067,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7105,7 +7095,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7133,7 +7123,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7161,7 +7151,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7189,7 +7179,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7217,7 +7207,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7245,7 +7235,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7273,7 +7263,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7301,7 +7291,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7329,7 +7319,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7357,7 +7347,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7385,7 +7375,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7413,7 +7403,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7441,7 +7431,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7469,7 +7459,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7497,7 +7487,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7525,7 +7515,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7553,7 +7543,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7581,7 +7571,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7609,7 +7599,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7637,7 +7627,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7665,7 +7655,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7693,7 +7683,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7721,7 +7711,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7749,7 +7739,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7777,7 +7767,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7805,7 +7795,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7833,7 +7823,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7861,7 +7851,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7889,7 +7879,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7917,7 +7907,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7945,7 +7935,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7973,7 +7963,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -8001,7 +7991,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -8029,7 +8019,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -8057,7 +8047,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -8085,7 +8075,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8113,7 +8103,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8141,7 +8131,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8169,7 +8159,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8197,7 +8187,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8225,7 +8215,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8253,7 +8243,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8281,7 +8271,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8309,7 +8299,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8337,7 +8327,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8365,7 +8355,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8393,7 +8383,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8421,7 +8411,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8449,7 +8439,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8477,7 +8467,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8505,7 +8495,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8533,7 +8523,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8561,7 +8551,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8589,7 +8579,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8617,7 +8607,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8645,7 +8635,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8673,7 +8663,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8701,7 +8691,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8729,7 +8719,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8757,7 +8747,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8785,7 +8775,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8813,7 +8803,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8841,7 +8831,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8869,7 +8859,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8897,7 +8887,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8925,7 +8915,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8953,7 +8943,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8981,7 +8971,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -9010,8 +9000,8 @@
       <c r="Z234" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1319B361-C8EE-2F42-AAEC-A24217EBB165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Colors" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="326">
   <si>
     <t>English</t>
   </si>
@@ -90,6 +84,9 @@
   </si>
   <si>
     <t>贝拉</t>
+  </si>
+  <si>
+    <t>貝拉</t>
   </si>
   <si>
     <t>IntroStringBellatrix</t>
@@ -102,6 +99,26 @@
     <t>哦，他知道怎么办，小宝贝波特.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>,他知道怎麼辦,小寶貝波特</t>
+    </r>
+  </si>
+  <si>
     <t>RoleNameHarry</t>
   </si>
   <si>
@@ -120,6 +137,9 @@
     <t>我郑重发誓，我做的不是好事.</t>
   </si>
   <si>
+    <t>我發誓，我做的不是好事</t>
+  </si>
+  <si>
     <t>RoleNameHermione</t>
   </si>
   <si>
@@ -127,6 +147,9 @@
   </si>
   <si>
     <t>赫敏</t>
+  </si>
+  <si>
+    <t>妙麗</t>
   </si>
   <si>
     <t>IntroStringHermione</t>
@@ -140,6 +163,9 @@
 —或者更糟的是，被驱逐.</t>
   </si>
   <si>
+    <t>我們都可能會死</t>
+  </si>
+  <si>
     <t>RoleNameRon</t>
   </si>
   <si>
@@ -147,6 +173,9 @@
   </si>
   <si>
     <t>罗恩</t>
+  </si>
+  <si>
+    <t>榮恩</t>
   </si>
   <si>
     <t>IntroStringRon</t>
@@ -159,6 +188,9 @@
     <t>为什么是蜘蛛!?为什么不能一直跟着蝴蝶走!?</t>
   </si>
   <si>
+    <t>不要蜘蛛!</t>
+  </si>
+  <si>
     <t>RoleNameVoldemort</t>
   </si>
   <si>
@@ -166,6 +198,9 @@
   </si>
   <si>
     <t>伏地魔</t>
+  </si>
+  <si>
+    <t>佛地魔</t>
   </si>
   <si>
     <t>IntroStringVoldemort</t>
@@ -179,6 +214,9 @@
 还有那些太弱而无法寻求的力量.</t>
   </si>
   <si>
+    <t>沒有善與惡。只有力量</t>
+  </si>
+  <si>
     <t>TeamImpostor</t>
   </si>
   <si>
@@ -188,6 +226,9 @@
     <t>内鬼</t>
   </si>
   <si>
+    <t>邪惡巫師</t>
+  </si>
+  <si>
     <t>TeamMuggle</t>
   </si>
   <si>
@@ -203,16 +244,25 @@
     <t>{0} was The {1}.</t>
   </si>
   <si>
+    <t>{0} 的身份是 {1}.</t>
+  </si>
+  <si>
     <t>taskTextRoleText</t>
   </si>
   <si>
     <t>{0}Role: {1}&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
+    <t>{0}职业: {1}&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>{0}職業: {1}&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>taskTextRoleIntroText</t>
   </si>
   <si>
-    <t>{0}Hold down the right mouse button over ability buttons for more information.&lt;/color&gt;&lt;/color&gt;</t>
+    <t>{0}{1}.&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
     <t>HPSettings</t>
@@ -221,46 +271,106 @@
     <t>&lt;color=#FFF319&gt;Harry Potter &lt;color=#FC0404&gt;Settings&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#FFF319&gt;哈利波特&lt;color=#FC0404&gt;设置&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFF319&gt;哈利波特&lt;color=#FC0404&gt;設定&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>enableModRole</t>
   </si>
   <si>
     <t>&lt;color=#FC0404&gt;Enable Mod Role&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#FC0404&gt;启用模组职业&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#FC0404&gt;啟用模組職業&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>roleSettings</t>
+  </si>
+  <si>
+    <t>&lt;color=#FA0D0D&gt;Role Settings&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#FA0D0D&gt;职业设置&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#FA0D0D&gt;職業設定&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>orderOfTheImp</t>
   </si>
   <si>
     <t>&lt;color=#FCDF04&gt;Order of the Impostors&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#FCDF04&gt;只剩麻瓜时内鬼直接胜利&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;只剩麻瓜時邪惡巫師獲勝&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>spellsInVents</t>
   </si>
   <si>
     <t>&lt;color=#FCDF04&gt;Can Spells be Used In Vents&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#FCDF04&gt;可以在管道中使用咒语&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;可以在通風口內使用咒語&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>showPopups</t>
   </si>
   <si>
     <t>&lt;color=#FCDF04&gt;Show Info Popups/Tooltips&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#FCDF04&gt;显示菜单/工具提示信息&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;顯示選單/工具提示訊息&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>randomGameStartPosition</t>
   </si>
   <si>
     <t>&lt;color=#FCDF04&gt;Random Game Start Position&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#FCDF04&gt;开启随机出生点&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;啟用隨機出生點&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>separateCooldowns</t>
   </si>
   <si>
     <t>&lt;color=#FCDF04&gt;Shared Voldemort Cooldowns&lt;/color&gt;</t>
   </si>
   <si>
-    <t>CooldownSettings</t>
-  </si>
-  <si>
-    <t>&lt;color=#04FC9D&gt;Cooldown &lt;color=#FC0404&gt;Settings&lt;/color&gt;&lt;/color&gt;</t>
+    <t>&lt;color=#FCDF04&gt;伏地魔击杀与技能冷却时间共享&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#FCDF04&gt;佛地魔擊殺與技能冷卻時間共享&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>ItemSettings</t>
+  </si>
+  <si>
+    <t>&lt;color=#04FC9D&gt;Item &lt;color=#FC0404&gt;Settings&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#04FC9D&gt;道具&lt;color=#FC0404&gt;设置&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#04FC9D&gt;道具&lt;color=#FC0404&gt;設定&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
     <t>beerDuration</t>
@@ -269,36 +379,84 @@
     <t>&lt;color=#04A9FC&gt;Butter Beer Duration&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#04A9FC&gt;黄油啤酒效果持续时间&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;奶油啤酒效果持續時間&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>hourglassTimer</t>
   </si>
   <si>
+    <t>&lt;color=#04A9FC&gt;Time Turner Timer&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;时间转换器倒流时间&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;時光器到流時間&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>mapDuration</t>
   </si>
   <si>
     <t>&lt;color=#04A9FC&gt;Marauders Map Duration&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#04A9FC&gt;活点地图持续时间&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;劫盜地圖持續時間&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>imperioDuration</t>
   </si>
   <si>
     <t>&lt;color=#04A9FC&gt;Imperio Duration&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#04A9FC&gt;夺魂咒持续时间&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;蠻橫咒持續時間&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>defensiveDuelistCooldown</t>
   </si>
   <si>
     <t>&lt;color=#04A9FC&gt;Defensive Duelist Cooldown&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#04A9FC&gt;防御式决斗冷却时间&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;防禦式決鬥冷卻時間&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>defensiveDuelistDuration</t>
   </si>
   <si>
+    <t>&lt;color=#04A9FC&gt;Defensive Duelist Duration&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;防御式决斗持续时间&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;防禦式決鬥持續時間&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>invisCloakCooldown</t>
   </si>
   <si>
     <t>&lt;color=#04A9FC&gt;Invisibility Cloak Cooldown&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#04A9FC&gt;隐身斗篷冷却时间&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;隱身斗篷冷卻時間&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>invisCloakDuration</t>
   </si>
   <si>
@@ -308,18 +466,33 @@
     <t>&lt;color=#04A9FC&gt;隐身斗篷持续时间&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#04A9FC&gt;隱身斗篷持續時間&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>hourglassCooldown</t>
   </si>
   <si>
     <t>&lt;color=#04A9FC&gt;Time Turner Cooldown&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#04A9FC&gt;时间转换器冷却时间&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;時光器冷卻時間&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>crucioCooldown</t>
   </si>
   <si>
     <t>&lt;color=#04A9FC&gt;Crucio Cooldown&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#04A9FC&gt;钻心剜骨咒冷却时间&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#04A9FC&gt;酷刑咒冷卻時間&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>crucioDuration</t>
   </si>
   <si>
@@ -329,6 +502,9 @@
     <t>&lt;color=#04A9FC&gt;钻心剜骨咒持续时间&lt;/color&gt;</t>
   </si>
   <si>
+    <t>&lt;color=#04A9FC&gt;酷刑咒持續時間&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>trapText</t>
   </si>
   <si>
@@ -338,10 +514,19 @@
     <t>你捡到了一个陷阱！无法预测的效果已被激活！</t>
   </si>
   <si>
+    <t>你撿到了一個陷阱!無法預測的效果降臨!</t>
+  </si>
+  <si>
     <t>normalText</t>
   </si>
   <si>
-    <t>You picked up an item! Press 'C' to open your Inventory.</t>
+    <t>You picked up an item! Use it in the bottom right corner of the screen.</t>
+  </si>
+  <si>
+    <t>你捡到了一件物品！在屏幕右下角使用它。</t>
+  </si>
+  <si>
+    <t>你撿到了一件物品！在螢幕右下角使用它。</t>
   </si>
   <si>
     <t>CrucioTooltipText</t>
@@ -352,37 +537,53 @@
 &lt;#FF0000FF&gt;Right click to shoot this spell in the direction of your cursor</t>
   </si>
   <si>
+    <t>钻心剜骨咒：
+一个可以让目标玩家失明并眩晕的咒语。
+&lt;#FF0000FF&gt;右击可以朝光标的方向射出该咒语</t>
+  </si>
+  <si>
+    <t>酷刑咒：
+一個可以使目標失明並眩暈的咒語。
+&lt;#FF0000FF&gt;右鍵可以朝游標方向射出該咒語</t>
+  </si>
+  <si>
     <t>ImperioCrucioTooltipText</t>
   </si>
   <si>
     <t>Imperio:
-Opens a menu which allows you to choose a player to mind-control
-&lt;#FF0000FF&gt;The mind-controlled player MUST be previously 'marked'</t>
-  </si>
-  <si>
-    <t>MarkCrucioTooltipText</t>
-  </si>
-  <si>
-    <t>Mark:
-Will 'mark' the target player to make them vulnerable to 'Imperio'</t>
+Opens a menu which allows you to choose a player to mind-control</t>
+  </si>
+  <si>
+    <t>夺魂咒：
+打开菜单，可以让你选择一名玩家进行心灵控制。</t>
+  </si>
+  <si>
+    <t>蠻橫咒：
+打開選單，可以讓你選擇一名玩家進行心靈控制。</t>
   </si>
   <si>
     <t>ButtonTextCrucio</t>
   </si>
   <si>
+    <t>Crucio</t>
+  </si>
+  <si>
     <t>钻心剜骨咒</t>
   </si>
   <si>
+    <t>酷刑咒</t>
+  </si>
+  <si>
     <t>ButtonTextImperio</t>
   </si>
   <si>
+    <t>Imperio</t>
+  </si>
+  <si>
     <t>夺魂咒</t>
   </si>
   <si>
-    <t>ButtonTextMarkVictim</t>
-  </si>
-  <si>
-    <t>Mark Victim</t>
+    <t>蠻橫咒</t>
   </si>
   <si>
     <t>CloakTooltipText</t>
@@ -392,6 +593,14 @@
 Will make you invisible for {0}s</t>
   </si>
   <si>
+    <t>隐身斗篷:
+会让你隐形{0}秒</t>
+  </si>
+  <si>
+    <t>隱身斗篷:
+會讓你隱身{0}秒</t>
+  </si>
+  <si>
     <t>ButtonTextCloak</t>
   </si>
   <si>
@@ -399,6 +608,9 @@
   </si>
   <si>
     <t>隐身斗篷</t>
+  </si>
+  <si>
+    <t>隱身斗篷</t>
   </si>
   <si>
     <t>HermioneTooltipText</t>
@@ -409,6 +621,16 @@
 This will bring you back to life, unless you were killed by a spell</t>
   </si>
   <si>
+    <t>时间转换器:
+延迟{0}秒后，你将会倒流到原来的位置。
+它可以让你复活，除非被咒语杀死</t>
+  </si>
+  <si>
+    <t>時光器:
+延遲{0}秒後，你將會到流到原來的位置。
+它可以使你復活，除非你被咒語所殺</t>
+  </si>
+  <si>
     <t>ButtonTextTimeTurner</t>
   </si>
   <si>
@@ -416,6 +638,9 @@
   </si>
   <si>
     <t>时间转换器</t>
+  </si>
+  <si>
+    <t>時光器</t>
   </si>
   <si>
     <t>DefensiveDuelistTooltipText</t>
@@ -426,6 +651,16 @@
 While this ability is active, you cannot move</t>
   </si>
   <si>
+    <t>防御式决斗：
+将使你在{0}秒内免疫击杀与咒语的伤害。
+处于该能力期间时，无法移动</t>
+  </si>
+  <si>
+    <t>防禦式決鬥：
+使你在{0}秒内免疫擊殺與咒語的傷害。
+處於該能力期間，無法移動</t>
+  </si>
+  <si>
     <t>ButtonTextDefense</t>
   </si>
   <si>
@@ -433,6 +668,9 @@
   </si>
   <si>
     <t>防御式决斗</t>
+  </si>
+  <si>
+    <t>防禦式決鬥</t>
   </si>
   <si>
     <t>TheKillingCurseTooltipText</t>
@@ -441,7 +679,19 @@
     <t>The Killing Curse:
 A spell which will kill any target it hits, except Harry
 If the spell hits Harry, you will die instead
-&lt;#FF0000FF&gt;Press the F key to shoot this spell in the direction of your cursor</t>
+&lt;#FF0000FF&gt;Press the right key to shoot this spell in the direction of your cursor</t>
+  </si>
+  <si>
+    <t>阿瓦达索命咒:
+一个可以杀死除哈利以外所有人的咒语。
+如果咒语击中哈利，你就会死亡。
+&lt;#FF0000FF&gt;按下右键可朝光标方向射出此咒语</t>
+  </si>
+  <si>
+    <t>索命咒:
+一個能夠使哈利以外的人死亡的咒語。
+如果咒語擊中哈利，你會死亡。
+&lt;#FF0000FF&gt;按下右鍵可朝游標方向射出此咒語</t>
   </si>
   <si>
     <t>ButtonTextAvadacadavra</t>
@@ -453,13 +703,7 @@
     <t>阿瓦达索命咒</t>
   </si>
   <si>
-    <t>CloseMenuTooltipText</t>
-  </si>
-  <si>
-    <t>Close Menu</t>
-  </si>
-  <si>
-    <t>关闭菜单</t>
+    <t>索命咒</t>
   </si>
   <si>
     <t>CoStunPlayerDurationText</t>
@@ -468,58 +712,118 @@
     <t>{0}You are stunned until the next meeting.&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
+    <t>{0}你在下次会议之前都会报错昏迷状态.&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>{0}你在下次會議前都在昏迷狀態.&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>CoActivateButterBeerDurationText</t>
   </si>
   <si>
     <t>{0}You are drunk on Butter Beer! {1}s remaining&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
+    <t>{0}你喝了黄油啤酒! 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>{0}你喝下了奶油啤酒! 剩餘{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>CoActivateHourglassDurationText</t>
   </si>
   <si>
     <t>{0}Time Turner will activate in {1}s&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
+    <t>{0}时间转换器将在{1}秒内生效&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>{0}時光器將在{1}秒内生效&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>CoFakeKillPopup</t>
   </si>
   <si>
     <t>You were revived by The Philosopher's Stone!</t>
   </si>
   <si>
+    <t>你被魔法石复活了!</t>
+  </si>
+  <si>
+    <t>你被魔法石復活了!</t>
+  </si>
+  <si>
     <t>RevealRolePopup</t>
   </si>
   <si>
     <t>{0} has had their role revealed!</t>
   </si>
   <si>
+    <t>{0} 已经揭露了他们的职业!</t>
+  </si>
+  <si>
+    <t>{0} 已經揭露了他們的職業!</t>
+  </si>
+  <si>
     <t>CoDefensiveDuelistDurationText</t>
   </si>
   <si>
     <t>{0}Defensive Duelist: {1}s remaining&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
+    <t>{0}防御式决斗: 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>{0}防禦式決鬥: 剩餘{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>CoInvisPlayerDurationText</t>
   </si>
   <si>
     <t>{0}Invisibility Cloak: {1}s remaining&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
+    <t>{0}隐形斗篷: 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>{0}隱形斗篷: 剩餘{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>CoBlindPlayerPopup</t>
   </si>
   <si>
     <t>You were blinded and frozen by a spell!</t>
   </si>
   <si>
+    <t>你被咒语弄瞎了眼睛并且动不了了!</t>
+  </si>
+  <si>
+    <t>你被咒語弄瞎了雙眼並且無法移動!</t>
+  </si>
+  <si>
     <t>CoBlindPlayerDurationText</t>
   </si>
   <si>
     <t>{0}You are blinded and frozen! {1}s remaining&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
+    <t>{0}你被冻僵了! 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>{0}你被凍僵了! 剩餘{1}秒&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>CoControlPlayerDurationText</t>
   </si>
   <si>
     <t>{0}You are mind-controlling "{1}"! {2}s remaining&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>{0}你被 "{1}" 控制了! 剩余{2}秒&lt;/color&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>{0}你被 "{1}" 控制了! 剩餘{2}秒&lt;/color&gt;&lt;/color&gt;</t>
   </si>
   <si>
     <t>CoControlPlayerPopup</t>
@@ -538,6 +842,14 @@
 Your cooldowns were reset.</t>
   </si>
   <si>
+    <t>罗恩在使用技能，你无法击杀他。
+你的冷却已重置。</t>
+  </si>
+  <si>
+    <t>榮恩在使用技能，你無法殺死他。
+你的冷却已重置。</t>
+  </si>
+  <si>
     <t>KillPlayerPopup1</t>
   </si>
   <si>
@@ -545,295 +857,185 @@
 Because of Harry's passive ability, you are dead.</t>
   </si>
   <si>
-    <t>KillPlayerPopup2</t>
-  </si>
-  <si>
-    <t>You were hit by a spell!</t>
-  </si>
-  <si>
-    <t>你被咒语击中了!</t>
-  </si>
-  <si>
-    <t>ForceAllVotesPopup</t>
-  </si>
-  <si>
-    <t>All votes were forced onto a specific player!</t>
-  </si>
-  <si>
-    <t>所有的投票都被强制分配给了一个特定的玩家!</t>
-  </si>
-  <si>
-    <t>ImpostorTextHP</t>
-  </si>
-  <si>
-    <t>Welcome To &lt;color=#FA9E11&gt;Harry Potter&lt;/color&gt;!</t>
-  </si>
-  <si>
-    <t>PingTracker_Update</t>
-  </si>
-  <si>
-    <t>Created by: &lt;color=#00ffff&gt;FangkuaiYa&lt;/color&gt;
-&lt;#FFFFFFFF&gt;Original Design by: &lt;#7289DAFF&gt;Hunter101#1337
-&lt;#FFFFFFFF&gt;Art by:&lt;color=#5A5AAD&gt;賣蟑螂&lt;/color&gt;&lt;color=#D3A4FF&gt;NotKomi&lt;/color&gt; &amp; &lt;#E67E22FF&gt;PhasmoFireGod&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>DeluminatorTooltip</t>
-  </si>
-  <si>
-    <t>ElderWandTooltip</t>
-  </si>
-  <si>
-    <t>GhostStoneTooltip</t>
-  </si>
-  <si>
-    <t>MaraudersMapTooltip</t>
-  </si>
-  <si>
-    <t>PhiloStoneTooltip</t>
-  </si>
-  <si>
-    <t>Philosopher's Stone:
-This item will revive you when you die.
-&lt;#FF0000FF&gt;This item will be automatically consumed.</t>
-  </si>
-  <si>
-    <t>PortKeyTooltip</t>
-  </si>
-  <si>
-    <t>Port Key:
-Teleports you to\nthe emergency button.</t>
-  </si>
-  <si>
-    <t>SortingHatTooltip</t>
-  </si>
-  <si>
-    <t>Sorting Hat:
-Reveals the role of the targeted player.
-&lt;#FF0000FF&gt;Can only be used in meetings!</t>
-  </si>
-  <si>
-    <t>TheGoldenSnitchTooltip</t>
-  </si>
-  <si>
-    <t>The Golden Snitch:
-Forces all votes onto a targeted player.
-&lt;#FF0000FF&gt;Can only be used in meetings!</t>
-  </si>
-  <si>
-    <t>貝拉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>门钥匙:
-使用后会将你传送到紧急会议的按钮旁边.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>榮恩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>妙麗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛地魔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻瓜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪惡巫師</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0} 的身份是 {1}.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}职业: {1}&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}職業: {1}&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}在技能按键上长按鼠标右键获取更多信息.&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}在技能按鍵上上長按右鍵獲取更多訊息.&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFF319&gt;哈利波特&lt;color=#FC0404&gt;设置&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFF319&gt;哈利波特&lt;color=#FC0404&gt;設定&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FC0404&gt;启用模组职业&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FC0404&gt;啟用模組職業&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FCDF04&gt;只剩麻瓜时内鬼直接胜利&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FCDF04&gt;只剩麻瓜時邪惡巫師獲勝&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FCDF04&gt;可以在管道中使用咒语&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FCDF04&gt;可以在通風口內使用咒語&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FCDF04&gt;显示菜单/工具提示信息&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FCDF04&gt;顯示選單/工具提示訊息&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FCDF04&gt;开启随机出生点&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FCDF04&gt;啟用隨機出生點&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FCDF04&gt;伏地魔击杀与技能冷却时间共享&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FCDF04&gt;佛地魔擊殺與技能冷卻時間共享&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04FC9D&gt;冷却时间&lt;color=#FC0404&gt;设置&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04FC9D&gt;冷卻時間&lt;color=#FC0404&gt;設定&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>模组作者: &lt;color=#00ffff&gt;FangkuaiYa&lt;/color&gt;
-&lt;#FFFFFFFF&gt;原作者: &lt;#7289DAFF&gt;Hunter101#1337
-&lt;#FFFFFFFF&gt;美工:&lt;color=#5A5AAD&gt;賣蟑螂&lt;/color&gt;&lt;color=#D3A4FF&gt;NotKomi&lt;/color&gt; &amp; &lt;#E67E22FF&gt;PhasmoFireGod&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎来到&lt;color=#FA9E11&gt;哈利波特&lt;/color&gt;模组!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歡迎來到&lt;color=#FA9E11&gt;哈利波特&lt;/color&gt;模组!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>關閉選單</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;黄油啤酒效果持续时间&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;奶油啤酒效果持續時間&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;时间转换器倒流时间&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你捡到了一件物品！按“C”打开库存。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>你试图对哈利使用咒语将其击杀！
+由于哈利的被动能力，你已经死亡。</t>
   </si>
   <si>
     <r>
-      <t>你撿到了一件物品! 按</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你試圖對哈利使用咒語將其殺死!
+由於哈利的被動能力</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微軟正黑體"/>
-        <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>"C"打開庫存</t>
+      <t>, 你已經死亡</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>標記</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>索命咒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}你喝了黄油啤酒! 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}你喝下了奶油啤酒! 剩餘{1}秒&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你被魔法石复活了!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金色飞贼:
-将所有选票强制分配给目标玩家.
-&lt;#FF0000FF&gt;只能在会议中使用!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金探子:
-將所有投票強制分配給目標玩家.
-&lt;#FF0000FF&gt;只能在會議中使用!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你被控制了!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>KillPlayerPopup2</t>
+  </si>
+  <si>
+    <t>You were hit by a spell!</t>
+  </si>
+  <si>
+    <t>你被咒语击中了!</t>
+  </si>
+  <si>
+    <t>你被咒語擊中了!</t>
+  </si>
+  <si>
+    <t>ForceAllVotesPopup</t>
+  </si>
+  <si>
+    <t>All votes were forced onto a specific player!</t>
+  </si>
+  <si>
+    <t>所有的投票都被强制分配给了一个特定的玩家!</t>
+  </si>
+  <si>
+    <t>所有投票都被強制分配給了一個特定玩家!</t>
+  </si>
+  <si>
+    <t>ImpostorTextHP</t>
+  </si>
+  <si>
+    <t>Welcome To &lt;color=#FA9E11&gt;Harry Potter&lt;/color&gt;!</t>
+  </si>
+  <si>
+    <t>欢迎来到&lt;color=#FA9E11&gt;哈利波特&lt;/color&gt;模组!</t>
+  </si>
+  <si>
+    <t>歡迎來到&lt;color=#FA9E11&gt;哈利波特&lt;/color&gt;模组!</t>
+  </si>
+  <si>
+    <t>PingTracker_Update</t>
+  </si>
+  <si>
+    <t>Created by: &lt;color=#00ffff&gt;FangkuaiYa&lt;/color&gt;
+&lt;#FFFFFFFF&gt;Original Design by: &lt;#7289DAFF&gt;Hunter101#1337
+&lt;#FFFFFFFF&gt;Art by:&lt;color=#5A5AAD&gt;賣蟑螂&lt;/color&gt;&lt;color=#D3A4FF&gt;NotKomi&lt;/color&gt; &amp; &lt;#E67E22FF&gt;PhasmoFireGod&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>模组作者: &lt;color=#00ffff&gt;FangkuaiYa&lt;/color&gt;
+&lt;#FFFFFFFF&gt;原作者: &lt;#7289DAFF&gt;Hunter101#1337
+&lt;#FFFFFFFF&gt;美工:&lt;color=#5A5AAD&gt;賣蟑螂&lt;/color&gt;&lt;color=#D3A4FF&gt;NotKomi&lt;/color&gt; &amp; &lt;#E67E22FF&gt;PhasmoFireGod&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>模組作者: &lt;color=#00ffff&gt;FangkuaiYa&lt;/color&gt;
+&lt;#FFFFFFFF&gt;原作者: &lt;#7289DAFF&gt;Hunter101#1337
+&lt;#FFFFFFFF&gt;美術:&lt;color=#5A5AAD&gt;賣蟑螂&lt;/color&gt;&lt;color=#D3A4FF&gt;NotKomi(繁體中文翻譯)&lt;/color&gt; &amp; &lt;#E67E22FF&gt;PhasmoFireGod&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>DeluminatorTooltip</t>
+  </si>
+  <si>
+    <t>Deluminator:
+Toggles the status of the lights (expect Fungle).</t>
+  </si>
+  <si>
+    <t>熄灯器:
+能够破坏灯光(除Fungle地图).</t>
+  </si>
+  <si>
+    <t>熄燈器:
+能夠改變燈光狀態(除Fungle地圖).</t>
+  </si>
+  <si>
+    <t>ElderWandTooltip</t>
+  </si>
+  <si>
+    <t>Elder Wand:
+If you are an Impostor, this
+item will reset your cooldowns to zero.
+Otherwise, you will get a single use button
+to kill anyone you think might be an Impostor</t>
+  </si>
+  <si>
+    <t>老魔杖:
+如果你是内鬼，你可以通过它重置你的冷却时间。
+反之则会获得一次杀死任何人的机会</t>
+  </si>
+  <si>
+    <t>接骨木魔杖:
+如果你是偽裝者，你可以通過它重置你的冷卻時間。
+如果不是，你會獲得一次殺死任何人的機會</t>
+  </si>
+  <si>
+    <t>GhostStoneTooltip</t>
+  </si>
+  <si>
+    <t>Resurrection Stone:
+Allows you to see ghosts.
+&lt;#FF0000FF&gt;This item cannot be consumed.</t>
+  </si>
+  <si>
+    <t>回魂石：
+可以让你看到灵魂玩家。
+&lt;#FF0000FF&gt;该物品为非消耗品.</t>
+  </si>
+  <si>
+    <t>重生石：
+可以讓你看見玩家的靈魂。
+&lt;#FF0000FF&gt;該物品為非消耗品.</t>
+  </si>
+  <si>
+    <t>MaraudersMapTooltip</t>
+  </si>
+  <si>
+    <t>Marauder's Map:
+Temporarily zooms out
+the camera. {0}s duration.</t>
+  </si>
+  <si>
+    <t>活点地图:
+扩大你的视野
+持续{0}秒.</t>
+  </si>
+  <si>
+    <t>劫盜地圖:
+擴大你的視野
+持續{0}秒.</t>
+  </si>
+  <si>
+    <t>PhiloStoneTooltip</t>
+  </si>
+  <si>
+    <t>Philosopher's Stone:
+This item will revive you when you die.
+&lt;#FF0000FF&gt;This item will be automatically consumed.</t>
   </si>
   <si>
     <t>魔法石:
 当你死亡时,它会使你复活.
 &lt;#FF0000FF&gt;该物品会自动消耗的.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>魔法石:
 當你死亡時</t>
     </r>
@@ -842,7 +1044,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微軟正黑體"/>
-        <family val="2"/>
         <charset val="136"/>
       </rPr>
       <t>,它會將你復活</t>
@@ -862,435 +1063,160 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微軟正黑體"/>
-        <family val="2"/>
         <charset val="136"/>
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你试图对哈利使用咒语将其击杀！
-由于哈利的被动能力，你已经死亡。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortKeyTooltip</t>
+  </si>
+  <si>
+    <t>Port Key:
+Teleports you to\nthe emergency button.</t>
+  </si>
+  <si>
+    <t>门钥匙:
+使用后会将你传送到紧急会议的按钮旁边.</t>
+  </si>
+  <si>
+    <t>港口鑰:
+使用後會將你傳送至緊急會議按鈕旁.</t>
+  </si>
+  <si>
+    <t>SortingHatTooltip</t>
+  </si>
+  <si>
+    <t>Sorting Hat:
+Reveals the role of the targeted player.
+&lt;#FF0000FF&gt;Can only be used in meetings!</t>
+  </si>
+  <si>
+    <t>分院帽:
+显示目标玩家的职业.
+&lt;#FF0000FF&gt;只能在会议中使用!</t>
+  </si>
+  <si>
+    <t>分類帽:
+顯示目標玩家的職業.
+&lt;#FF0000FF&gt;只能在會議中使用!</t>
+  </si>
+  <si>
+    <t>TheGoldenSnitchTooltip</t>
+  </si>
+  <si>
+    <t>The Golden Snitch:
+Forces all votes onto a targeted player.
+&lt;#FF0000FF&gt;Can only be used in meetings!</t>
+  </si>
+  <si>
+    <t>金色飞贼:
+将所有选票强制分配给目标玩家.
+&lt;#FF0000FF&gt;只能在会议中使用!</t>
+  </si>
+  <si>
+    <t>金探子:
+將所有投票強制分配給目標玩家.
+&lt;#FF0000FF&gt;只能在會議中使用!</t>
+  </si>
+  <si>
+    <t>MindControlMenuClickText</t>
+  </si>
+  <si>
+    <t>Click here</t>
+  </si>
+  <si>
+    <t>单击这里</t>
+  </si>
+  <si>
+    <t>點擊這裡</t>
+  </si>
+  <si>
+    <t>ModSettingsText</t>
+  </si>
+  <si>
+    <t>Mod Settings</t>
+  </si>
+  <si>
+    <t>模组设置</t>
+  </si>
+  <si>
+    <t>模組設定</t>
+  </si>
+  <si>
+    <t>taskTextRoleIntroText1</t>
+  </si>
+  <si>
+    <t>Press the &lt;b&gt;H&lt;/b&gt; key to view the item introduction.</t>
+  </si>
+  <si>
+    <t>按下&lt;b&gt;H&lt;/b&gt;按键查看道具介绍.</t>
+  </si>
+  <si>
+    <t>按下&lt;b&gt;H&lt;/b&gt;按鍵查看道具介紹</t>
+  </si>
+  <si>
+    <t>ButterBeerTooltip</t>
+  </si>
+  <si>
+    <t>Butter Beer:
+Players who pick it up will walk in the opposite direction for some time.</t>
+  </si>
+  <si>
+    <t>黄油啤酒:
+捡到它的玩家走路方向会变反一段时间.</t>
   </si>
   <si>
     <r>
-      <t>你試圖對哈利使用咒語將其殺死!
-由於哈利的被動能力</t>
+      <t>奶油啤酒</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
+        <rFont val="細明體"/>
         <charset val="136"/>
       </rPr>
-      <t>, 你已經死亡</t>
+      <t xml:space="preserve">:
+</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
-      <t>。</t>
+      <t>撿到它的玩家方向會相反一段時間</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你被咒語擊中了!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有投票都被強制分配給了一個特定玩家!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你撿到了一個陷阱!無法預測的效果降臨!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0} 已经揭露了他们的职业!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0} 已經揭露了他們的職業!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要蜘蛛!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;钻心剜骨咒冷却时间&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>夺魂咒：
-打开菜单，可以让你选择一名玩家进行心灵控制。
-&lt;#FF0000FF&gt;前提是该被控制的玩家需要被标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蠻橫咒：
-打開選單，可以讓你選擇一名玩家進行心靈控制。
-&lt;#FF0000FF&gt;前提是該被控制的玩家需要被標記</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>标记：
-标记一名玩家，可以对该玩家使用夺魂咒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>標記：
-標記一名玩家，可以對該玩家使用奪魂咒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沒有善與惡。只有力量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我發誓，我做的不是好事</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;Defensive Duelist Duration&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;防御式决斗冷却时间&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;防禦式決鬥冷卻時間&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;防御式决斗持续时间&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;防禦式決鬥持續時間&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我們都可能會死</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crucio</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>酷刑咒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Imperio</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蠻橫咒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻心剜骨咒：
-一个可以让目标玩家失明并眩晕的咒语。
-&lt;#FF0000FF&gt;右击可以朝光标的方向射出该咒语</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分院帽:
-显示目标玩家的职业.
-&lt;#FF0000FF&gt;只能在会议中使用!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分類帽:
-顯示目標玩家的職業.
-&lt;#FF0000FF&gt;只能在會議中使用!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>港口鑰:
-使用後會將你傳送至緊急會議按鈕旁.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marauder's Map:
-Temporarily zooms out
-the camera. {0}s duration.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>活点地图:
-扩大你的视野
-持续{0}秒.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劫盜地圖:
-擴大你的視野
-持續{0}秒.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}你在下次会议之前都会报错昏迷状态.&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}你在下次會議前都在昏迷狀態.&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿瓦达索命咒:
-一个可以杀死除哈利以外所有人的咒语。
-如果咒语击中哈利，你就会死亡。
-&lt;#FF0000FF&gt;按下F按键可朝光标方向射出此咒语</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>索命咒:
-一個能夠使哈利以外的人死亡的咒語。
-如果咒語擊中哈利，你會死亡。
-&lt;#FF0000FF&gt;按下F鍵可朝游標方向射出此咒語</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>防禦式決鬥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御式决斗：
-将使你在{0}秒内免疫击杀与咒语的伤害。
-处于该能力期间时，无法移动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>防禦式決鬥：
-使你在{0}秒内免疫擊殺與咒語的傷害。
-處於該能力期間，無法移動</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;Time Turner Timer&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>時光器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间转换器:
-延迟{0}秒后，你将会倒流到原来的位置。
-它可以让你复活，除非被咒语杀死</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>時光器:
-延遲{0}秒後，你將會到流到原來的位置。
-它可以使你復活，除非你被咒語所殺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>隱身斗篷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐身斗篷:
-会让你隐形{0}秒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>隱身斗篷:
-會讓你隱身{0}秒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resurrection Stone:
-Allows you to see ghosts.
-&lt;#FF0000FF&gt;This item cannot be consumed.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回魂石：
-可以让你看到灵魂玩家。
-&lt;#FF0000FF&gt;该物品为非消耗品.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重生石：
-可以讓你看見玩家的靈魂。
-&lt;#FF0000FF&gt;該物品為非消耗品.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elder Wand:
-If you are an Impostor, this
-item will reset your cooldowns to zero.
-Otherwise, you will get a single use button
-to kill anyone you think might be an Impostor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>老魔杖:
-如果你是内鬼，你可以通过它重置你的冷却时间。
-反之则会获得一次杀死任何人的机会</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接骨木魔杖:
-如果你是偽裝者，你可以通過它重置你的冷卻時間。
-如果不是，你會獲得一次殺死任何人的機會</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deluminator:
-Toggles the status of the lights (expect Fungle).</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>熄灯器:
-能够破坏灯光(除Fungle地图).</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>熄燈器:
-能夠改變燈光狀態(除Fungle地圖).</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗恩在使用技能，你无法击杀他。
-你的冷却已重置。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>榮恩在使用技能，你無法殺死他。
-你的冷却已重置。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;時光器到流時間&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;夺魂咒持续时间&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;蠻橫咒持續時間&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;活点地图持续时间&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;劫盜地圖持續時間&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;隐身斗篷冷却时间&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;隱身斗篷冷卻時間&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;隱身斗篷持續時間&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;时间转换器冷却时间&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;時光器冷卻時間&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>酷刑咒：
-一個可以使目標失明並眩暈的咒語。
-&lt;#FF0000FF&gt;右鍵可以朝游標方向射出該咒語</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;酷刑咒冷卻時間&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#04A9FC&gt;酷刑咒持續時間&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你被魔法石復活了!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}时间转换器将在{1}秒内生效&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}時光器將在{1}秒内生效&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}防御式决斗: 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}防禦式決鬥: 剩餘{1}秒&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}隐形斗篷: 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}隱形斗篷: 剩餘{1}秒&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你被咒语弄瞎了眼睛并且动不了了!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>你被咒語弄瞎了雙眼並且無法移動!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}你被冻僵了! 剩余{1}秒&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}你被凍僵了! 剩餘{1}秒&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}你被 "{1}" 控制了! 剩余{2}秒&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}你被 "{1}" 控制了! 剩餘{2}秒&lt;/color&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>模組作者: &lt;color=#00ffff&gt;FangkuaiYa&lt;/color&gt;
-&lt;#FFFFFFFF&gt;原作者: &lt;#7289DAFF&gt;Hunter101#1337
-&lt;#FFFFFFFF&gt;美術:&lt;color=#5A5AAD&gt;賣蟑螂&lt;/color&gt;&lt;color=#D3A4FF&gt;NotKomi(繁體中文翻譯)&lt;/color&gt; &amp; &lt;#E67E22FF&gt;PhasmoFireGod&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>BasItemTooltip</t>
+  </si>
+  <si>
+    <t>Basilisk:
+Players who pick it up will be petrified until the end of the next meeting.</t>
+  </si>
+  <si>
+    <t>蛇怪:
+捡到它的玩家会被石化直到下次会议结束.</t>
+  </si>
+  <si>
+    <t>蛇怪:
+撿到它的玩家會被石化直到下次會議結束</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1311,29 +1237,376 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="136"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
+      <name val="細明體"/>
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1341,172 +1614,352 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -1517,7 +1970,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1545,40 +1998,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1776,41 +2343,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z234"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O41" workbookViewId="0">
-      <selection activeCell="P85" sqref="P85"/>
+    <sheetView tabSelected="1" topLeftCell="L87" workbookViewId="0">
+      <selection activeCell="O100" sqref="O100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.9921875" customWidth="1"/>
-    <col min="2" max="2" width="96.72265625" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" customWidth="1"/>
-    <col min="4" max="4" width="9.14453125" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="8.203125" customWidth="1"/>
-    <col min="7" max="7" width="8.47265625" customWidth="1"/>
-    <col min="8" max="8" width="6.9921875" customWidth="1"/>
-    <col min="9" max="9" width="7.93359375" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.01171875" customWidth="1"/>
-    <col min="12" max="12" width="7.12890625" customWidth="1"/>
-    <col min="13" max="13" width="10.0859375" customWidth="1"/>
-    <col min="14" max="14" width="8.7421875" customWidth="1"/>
-    <col min="15" max="15" width="79.234375" customWidth="1"/>
-    <col min="16" max="16" width="73.3125" customWidth="1"/>
-    <col min="17" max="17" width="5.24609375" customWidth="1"/>
-    <col min="18" max="26" width="7.80078125" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="96.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="7.42857142857143" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" customWidth="1"/>
+    <col min="5" max="5" width="12.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="8.14285714285714" customWidth="1"/>
+    <col min="7" max="7" width="8.42857142857143" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="7.71428571428571" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="7.14285714285714" customWidth="1"/>
+    <col min="13" max="13" width="10.1428571428571" customWidth="1"/>
+    <col min="14" max="14" width="8.71428571428571" customWidth="1"/>
+    <col min="15" max="15" width="79.2857142857143" customWidth="1"/>
+    <col min="16" max="16" width="73.2857142857143" customWidth="1"/>
+    <col min="17" max="17" width="5.28571428571429" customWidth="1"/>
+    <col min="18" max="26" width="7.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1870,7 +2437,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1892,8 +2459,8 @@
       <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>185</v>
+      <c r="P2" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1906,12 +2473,12 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="3" ht="28.5" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1926,9 +2493,11 @@
       <c r="M3" s="3"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -1940,12 +2509,12 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1960,10 +2529,10 @@
       <c r="M4" s="3"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1976,12 +2545,12 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1996,10 +2565,10 @@
       <c r="M5" s="3"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2012,12 +2581,12 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2032,10 +2601,10 @@
       <c r="M6" s="3"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2048,12 +2617,12 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="7" ht="28.5" spans="1:26">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2068,10 +2637,10 @@
       <c r="M7" s="3"/>
       <c r="N7" s="1"/>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2084,12 +2653,12 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2104,10 +2673,10 @@
       <c r="M8" s="3"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2120,12 +2689,12 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="9" ht="28.5" spans="1:26">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2140,10 +2709,10 @@
       <c r="M9" s="3"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2156,12 +2725,12 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2176,10 +2745,10 @@
       <c r="M10" s="3"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2192,12 +2761,12 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="11" ht="28.5" spans="1:26">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2212,10 +2781,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="1"/>
       <c r="O11" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2228,12 +2797,12 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2248,10 +2817,10 @@
       <c r="M12" s="3"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2264,12 +2833,12 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2284,10 +2853,10 @@
       <c r="M13" s="3"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -2300,12 +2869,12 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2320,10 +2889,10 @@
       <c r="M14" s="3"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -2336,12 +2905,12 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2356,10 +2925,10 @@
       <c r="M15" s="3"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -2372,12 +2941,12 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2392,10 +2961,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -2408,7 +2977,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2436,12 +3005,12 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2456,10 +3025,10 @@
       <c r="M18" s="3"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2472,12 +3041,12 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2489,13 +3058,13 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="4"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2508,12 +3077,12 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2525,13 +3094,13 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="4"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2544,12 +3113,12 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2561,13 +3130,13 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="4"/>
+      <c r="M21" s="5"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2580,12 +3149,12 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2597,13 +3166,13 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="4"/>
+      <c r="M22" s="5"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2616,12 +3185,12 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2633,13 +3202,13 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="4"/>
+      <c r="M23" s="5"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2652,12 +3221,12 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2669,13 +3238,13 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="4"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2688,12 +3257,12 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2705,13 +3274,13 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="4"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2724,12 +3293,12 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2741,13 +3310,13 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="4"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2760,12 +3329,12 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2777,13 +3346,13 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="4"/>
+      <c r="M27" s="5"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>291</v>
+        <v>110</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2796,12 +3365,12 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2813,13 +3382,13 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="4"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>295</v>
+        <v>114</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -2832,12 +3401,12 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2849,13 +3418,13 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="4"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>292</v>
+        <v>117</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>293</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2868,12 +3437,12 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2885,13 +3454,13 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="4"/>
+      <c r="M30" s="5"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>250</v>
+        <v>121</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>251</v>
+        <v>122</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -2904,12 +3473,12 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2921,13 +3490,13 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="4"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -2940,12 +3509,12 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2957,13 +3526,13 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="5"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>296</v>
+        <v>129</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>297</v>
+        <v>130</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -2976,12 +3545,12 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2996,10 +3565,10 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>298</v>
+        <v>134</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -3012,12 +3581,12 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3032,10 +3601,10 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -3048,12 +3617,12 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3068,10 +3637,10 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>302</v>
+        <v>142</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -3084,12 +3653,12 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26">
       <c r="A36" s="1" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3104,10 +3673,10 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>303</v>
+        <v>146</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -3120,9 +3689,13 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+    <row r="37" spans="1:26">
+      <c r="A37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3135,8 +3708,12 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -3148,13 +3725,9 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>97</v>
-      </c>
+    <row r="38" spans="1:26">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3167,12 +3740,8 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>238</v>
-      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -3184,12 +3753,12 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26">
       <c r="A39" s="1" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3204,10 +3773,10 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -3220,9 +3789,13 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+    <row r="40" spans="1:26">
+      <c r="A40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3235,8 +3808,12 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="O40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -3248,13 +3825,9 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="36" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>102</v>
-      </c>
+    <row r="41" spans="1:26">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3267,12 +3840,8 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>301</v>
-      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -3284,12 +3853,12 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="36" x14ac:dyDescent="0.2">
+    <row r="42" ht="42.75" spans="1:26">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3304,10 +3873,10 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="2" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -3320,12 +3889,12 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="43" ht="28.5" spans="1:26">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3340,10 +3909,10 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="2" t="s">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -3356,7 +3925,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3384,12 +3953,12 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3404,10 +3973,10 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -3420,12 +3989,12 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3440,10 +4009,10 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -3456,13 +4025,9 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>112</v>
-      </c>
+    <row r="47" spans="1:26">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3475,12 +4040,8 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -3492,9 +4053,13 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+    <row r="48" ht="28.5" spans="1:26">
+      <c r="A48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3507,8 +4072,12 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="O48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -3520,13 +4089,9 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>114</v>
-      </c>
+    <row r="49" spans="1:26">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3539,12 +4104,8 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -3556,9 +4117,13 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+    <row r="50" spans="1:26">
+      <c r="A50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3571,8 +4136,12 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
+      <c r="O50" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
@@ -3584,13 +4153,9 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>116</v>
-      </c>
+    <row r="51" spans="1:26">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3603,12 +4168,8 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>277</v>
-      </c>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -3620,9 +4181,13 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+    <row r="52" ht="42.75" spans="1:26">
+      <c r="A52" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3635,8 +4200,12 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
+      <c r="O52" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
@@ -3648,13 +4217,9 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="36" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>119</v>
-      </c>
+    <row r="53" spans="1:26">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3667,12 +4232,8 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
@@ -3684,9 +4245,13 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+    <row r="54" spans="1:26">
+      <c r="A54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3699,8 +4264,12 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
+      <c r="O54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
@@ -3712,13 +4281,9 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>121</v>
-      </c>
+    <row r="55" spans="1:26">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3731,12 +4296,8 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>274</v>
-      </c>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -3748,9 +4309,13 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+    <row r="56" ht="42.75" spans="1:26">
+      <c r="A56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3763,8 +4328,12 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
+      <c r="O56" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -3776,13 +4345,9 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="36" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>124</v>
-      </c>
+    <row r="57" spans="1:26">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3795,12 +4360,8 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -3812,9 +4373,13 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+    <row r="58" spans="1:26">
+      <c r="A58" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3827,8 +4392,12 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
+      <c r="O58" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -3840,13 +4409,9 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>126</v>
-      </c>
+    <row r="59" spans="1:26">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3859,12 +4424,8 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -3876,9 +4437,13 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+    <row r="60" ht="57" spans="1:26">
+      <c r="A60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3891,8 +4456,12 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
+      <c r="O60" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -3904,13 +4473,9 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>129</v>
-      </c>
+    <row r="61" spans="1:26">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3923,12 +4488,8 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -3940,9 +4501,13 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+    <row r="62" spans="1:26">
+      <c r="A62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3955,8 +4520,12 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
+      <c r="O62" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -3968,13 +4537,9 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>131</v>
-      </c>
+    <row r="63" spans="1:26">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3987,12 +4552,8 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -4004,9 +4565,13 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+    <row r="64" spans="1:26">
+      <c r="A64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -4019,8 +4584,12 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
+      <c r="O64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -4032,12 +4601,12 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26">
       <c r="A65" s="1" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -4052,10 +4621,10 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -4068,9 +4637,13 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+    <row r="66" spans="1:26">
+      <c r="A66" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -4083,8 +4656,12 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
+      <c r="O66" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -4096,12 +4673,12 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26">
       <c r="A67" s="1" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -4116,10 +4693,10 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -4132,12 +4709,12 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -4151,11 +4728,11 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="1" t="s">
+      <c r="O68" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="P68" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -4168,12 +4745,12 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26">
       <c r="A69" s="1" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>141</v>
+        <v>228</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -4188,10 +4765,10 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -4204,12 +4781,12 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26">
       <c r="A70" s="1" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -4224,10 +4801,10 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>304</v>
+        <v>234</v>
       </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -4240,12 +4817,12 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26">
       <c r="A71" s="1" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -4259,11 +4836,11 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="4" t="s">
-        <v>239</v>
+      <c r="O71" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -4276,12 +4853,12 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26">
       <c r="A72" s="1" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -4296,10 +4873,10 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1" t="s">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -4312,12 +4889,12 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26">
       <c r="A73" s="1" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>149</v>
+        <v>244</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -4332,10 +4909,10 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -4348,12 +4925,12 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26">
       <c r="A74" s="1" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -4368,10 +4945,10 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -4384,12 +4961,12 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" ht="28.5" spans="1:26">
       <c r="A75" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>153</v>
+        <v>250</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -4403,11 +4980,11 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>314</v>
+      <c r="O75" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -4420,12 +4997,12 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" ht="29.25" spans="1:26">
       <c r="A76" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>155</v>
+        <v>254</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -4439,11 +5016,11 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-      <c r="O76" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>316</v>
+      <c r="O76" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -4456,12 +5033,12 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26">
       <c r="A77" s="1" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -4476,10 +5053,10 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1" t="s">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
@@ -4492,12 +5069,12 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26">
       <c r="A78" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>160</v>
+        <v>262</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -4511,11 +5088,11 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>290</v>
+      <c r="O78" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -4528,13 +5105,9 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="27" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="79" spans="1:26">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -4547,12 +5120,8 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
-      <c r="O79" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
@@ -4564,12 +5133,12 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26">
       <c r="A80" s="1" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -4584,10 +5153,10 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
@@ -4600,13 +5169,9 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>167</v>
-      </c>
+    <row r="81" spans="1:26">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -4619,12 +5184,8 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
-      <c r="O81" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
@@ -4636,9 +5197,13 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+    <row r="82" ht="71.25" spans="1:26">
+      <c r="A82" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4651,8 +5216,12 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
+      <c r="O82" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
@@ -4664,13 +5233,9 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>170</v>
-      </c>
+    <row r="83" spans="1:26">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4683,12 +5248,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="O83" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
@@ -4700,9 +5260,13 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+    <row r="84" ht="28.5" spans="1:26">
+      <c r="A84" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4715,8 +5279,12 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
+      <c r="O84" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
@@ -4728,12 +5296,12 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="85" ht="71.25" spans="1:26">
       <c r="A85" s="1" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4748,10 +5316,10 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="2" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
@@ -4764,9 +5332,13 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+    <row r="86" ht="42.75" spans="1:26">
+      <c r="A86" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4779,7 +5351,12 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-      <c r="P86" s="1"/>
+      <c r="O86" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
@@ -4791,12 +5368,12 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="87" ht="42.75" spans="1:26">
       <c r="A87" s="1" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -4811,10 +5388,10 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
@@ -4827,12 +5404,12 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="58.5" x14ac:dyDescent="0.2">
+    <row r="88" ht="44.25" spans="1:26">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4847,10 +5424,10 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -4863,12 +5440,12 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="36" x14ac:dyDescent="0.2">
+    <row r="89" ht="28.5" spans="1:26">
       <c r="A89" s="1" t="s">
-        <v>175</v>
+        <v>294</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4883,10 +5460,10 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="2" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
@@ -4899,12 +5476,12 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="36" x14ac:dyDescent="0.2">
+    <row r="90" ht="42.75" spans="1:26">
       <c r="A90" s="1" t="s">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4919,10 +5496,10 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="2" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
@@ -4935,12 +5512,12 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="41.25" x14ac:dyDescent="0.25">
+    <row r="91" ht="42.75" spans="1:26">
       <c r="A91" s="1" t="s">
-        <v>177</v>
+        <v>302</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4955,10 +5532,10 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="2" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
@@ -4971,13 +5548,9 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>180</v>
-      </c>
+    <row r="92" spans="1:26">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4990,12 +5563,8 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="P92" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
@@ -5007,12 +5576,12 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="36" x14ac:dyDescent="0.2">
+    <row r="93" ht="16.5" spans="1:26">
       <c r="A93" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>182</v>
+        <v>306</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -5026,11 +5595,11 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
-      <c r="O93" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>261</v>
+      <c r="O93" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="P93" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
@@ -5043,12 +5612,12 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26">
       <c r="A94" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>184</v>
+        <v>310</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -5062,11 +5631,11 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
-      <c r="O94" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P94" s="2" t="s">
-        <v>230</v>
+      <c r="O94" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
@@ -5079,7 +5648,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5107,9 +5676,13 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+    <row r="96" spans="1:26">
+      <c r="A96" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -5122,8 +5695,12 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
+      <c r="O96" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
@@ -5135,7 +5712,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5163,9 +5740,13 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+    <row r="98" ht="30" spans="1:26">
+      <c r="A98" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -5178,8 +5759,12 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
+      <c r="O98" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="P98" s="8" t="s">
+        <v>321</v>
+      </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
@@ -5191,9 +5776,13 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+    <row r="99" ht="28.5" spans="1:26">
+      <c r="A99" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>323</v>
+      </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -5206,8 +5795,12 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
+      <c r="O99" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
@@ -5219,7 +5812,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5247,7 +5840,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5275,7 +5868,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5303,7 +5896,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5331,7 +5924,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5359,7 +5952,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5387,7 +5980,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5415,7 +6008,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5443,7 +6036,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5471,7 +6064,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5499,7 +6092,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5527,7 +6120,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5555,7 +6148,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5583,7 +6176,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5611,7 +6204,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5639,7 +6232,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5667,7 +6260,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5695,7 +6288,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5723,7 +6316,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5751,7 +6344,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5779,7 +6372,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5807,7 +6400,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5835,7 +6428,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5863,7 +6456,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5891,7 +6484,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5919,7 +6512,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5947,7 +6540,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5975,7 +6568,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6003,7 +6596,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6031,7 +6624,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6059,7 +6652,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6087,7 +6680,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6115,7 +6708,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6143,7 +6736,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6171,7 +6764,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6199,7 +6792,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6227,7 +6820,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6255,7 +6848,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6283,7 +6876,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6311,7 +6904,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6339,7 +6932,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6367,7 +6960,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6395,7 +6988,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6423,7 +7016,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6451,7 +7044,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6479,7 +7072,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6507,7 +7100,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6535,7 +7128,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6563,7 +7156,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6591,7 +7184,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6619,7 +7212,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6647,7 +7240,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6675,7 +7268,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6703,7 +7296,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6731,7 +7324,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6759,7 +7352,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6787,7 +7380,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6815,7 +7408,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6843,7 +7436,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6871,7 +7464,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6899,7 +7492,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6927,7 +7520,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6955,7 +7548,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6983,7 +7576,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7011,7 +7604,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7039,7 +7632,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7067,7 +7660,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7095,7 +7688,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7123,7 +7716,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7151,7 +7744,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7179,7 +7772,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7207,7 +7800,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7235,7 +7828,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7263,7 +7856,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7291,7 +7884,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7319,7 +7912,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7347,7 +7940,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7375,7 +7968,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7403,7 +7996,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7431,7 +8024,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7459,7 +8052,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7487,7 +8080,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7515,7 +8108,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7543,7 +8136,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7571,7 +8164,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7599,7 +8192,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7627,7 +8220,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7655,7 +8248,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7683,7 +8276,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7711,7 +8304,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7739,7 +8332,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7767,7 +8360,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7795,7 +8388,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7823,7 +8416,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7851,7 +8444,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7879,7 +8472,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7907,7 +8500,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7935,7 +8528,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7963,7 +8556,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7991,7 +8584,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -8019,7 +8612,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -8047,7 +8640,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -8075,7 +8668,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8103,7 +8696,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8131,7 +8724,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8159,7 +8752,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8187,7 +8780,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8215,7 +8808,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8243,7 +8836,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8271,7 +8864,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8299,7 +8892,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8327,7 +8920,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8355,7 +8948,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8383,7 +8976,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8411,7 +9004,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8439,7 +9032,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8467,7 +9060,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8495,7 +9088,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8523,7 +9116,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8551,7 +9144,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8579,7 +9172,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8607,7 +9200,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8635,7 +9228,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8663,7 +9256,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8691,7 +9284,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8719,7 +9312,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8747,7 +9340,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8775,7 +9368,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8803,7 +9396,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8831,7 +9424,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8859,7 +9452,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8887,7 +9480,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8915,93 +9508,9 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-      <c r="I232" s="1"/>
-      <c r="J232" s="1"/>
-      <c r="K232" s="1"/>
-      <c r="L232" s="1"/>
-      <c r="M232" s="1"/>
-      <c r="N232" s="1"/>
-      <c r="O232" s="1"/>
-      <c r="P232" s="1"/>
-      <c r="Q232" s="1"/>
-      <c r="R232" s="1"/>
-      <c r="S232" s="1"/>
-      <c r="T232" s="1"/>
-      <c r="U232" s="1"/>
-      <c r="V232" s="1"/>
-      <c r="W232" s="1"/>
-      <c r="X232" s="1"/>
-      <c r="Y232" s="1"/>
-      <c r="Z232" s="1"/>
-    </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
-      <c r="I233" s="1"/>
-      <c r="J233" s="1"/>
-      <c r="K233" s="1"/>
-      <c r="L233" s="1"/>
-      <c r="M233" s="1"/>
-      <c r="N233" s="1"/>
-      <c r="O233" s="1"/>
-      <c r="P233" s="1"/>
-      <c r="Q233" s="1"/>
-      <c r="R233" s="1"/>
-      <c r="S233" s="1"/>
-      <c r="T233" s="1"/>
-      <c r="U233" s="1"/>
-      <c r="V233" s="1"/>
-      <c r="W233" s="1"/>
-      <c r="X233" s="1"/>
-      <c r="Y233" s="1"/>
-      <c r="Z233" s="1"/>
-    </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
-      <c r="K234" s="1"/>
-      <c r="L234" s="1"/>
-      <c r="M234" s="1"/>
-      <c r="N234" s="1"/>
-      <c r="O234" s="1"/>
-      <c r="P234" s="1"/>
-      <c r="Q234" s="1"/>
-      <c r="R234" s="1"/>
-      <c r="S234" s="1"/>
-      <c r="T234" s="1"/>
-      <c r="U234" s="1"/>
-      <c r="V234" s="1"/>
-      <c r="W234" s="1"/>
-      <c r="X234" s="1"/>
-      <c r="Y234" s="1"/>
-      <c r="Z234" s="1"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -949,7 +949,8 @@
   </si>
   <si>
     <t>Deluminator:
-Toggles the status of the lights (expect Fungle).</t>
+Toggles the status of the lights
+(expect Fungle).</t>
   </si>
   <si>
     <t>熄灯器:
@@ -1077,7 +1078,8 @@
   </si>
   <si>
     <t>门钥匙:
-使用后会将你传送到紧急会议的按钮旁边.</t>
+使用后会将你传送到紧急会议
+的按钮旁边.</t>
   </si>
   <si>
     <t>港口鑰:
@@ -1106,7 +1108,8 @@
   </si>
   <si>
     <t>The Golden Snitch:
-Forces all votes onto a targeted player.
+Forces all votes onto a targeted
+ player.
 &lt;#FF0000FF&gt;Can only be used in meetings!</t>
   </si>
   <si>
@@ -1160,7 +1163,8 @@
   </si>
   <si>
     <t>Butter Beer:
-Players who pick it up will walk in the opposite direction for some time.</t>
+Players who pick it up will walk in the
+ opposite direction for some time.</t>
   </si>
   <si>
     <t>黄油啤酒:
@@ -1168,6 +1172,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="136"/>
+      </rPr>
       <t>奶油啤酒</t>
     </r>
     <r>
@@ -1194,8 +1204,10 @@
     <t>BasItemTooltip</t>
   </si>
   <si>
-    <t>Basilisk:
-Players who pick it up will be petrified until the end of the next meeting.</t>
+    <t xml:space="preserve">
+Basilisk:
+Players who pick it up will be petrified 
+until the end of the next meeting.</t>
   </si>
   <si>
     <t>蛇怪:
@@ -1216,7 +1228,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1404,12 +1416,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="細明體"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1860,7 +1866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1869,9 +1875,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2351,8 +2354,8 @@
   <sheetPr/>
   <dimension ref="A1:Z231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L87" workbookViewId="0">
-      <selection activeCell="O100" sqref="O100"/>
+    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
+      <selection activeCell="O91" sqref="O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15"/>
@@ -5260,7 +5263,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" ht="28.5" spans="1:26">
+    <row r="84" ht="42.75" spans="1:26">
       <c r="A84" s="1" t="s">
         <v>274</v>
       </c>
@@ -5440,7 +5443,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" ht="28.5" spans="1:26">
+    <row r="89" ht="42.75" spans="1:26">
       <c r="A89" s="1" t="s">
         <v>294</v>
       </c>
@@ -5512,7 +5515,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" ht="42.75" spans="1:26">
+    <row r="91" ht="57" spans="1:26">
       <c r="A91" s="1" t="s">
         <v>302</v>
       </c>
@@ -5576,7 +5579,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" ht="16.5" spans="1:26">
+    <row r="93" spans="1:26">
       <c r="A93" s="1" t="s">
         <v>306</v>
       </c>
@@ -5598,7 +5601,7 @@
       <c r="O93" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="P93" s="7" t="s">
+      <c r="P93" s="6" t="s">
         <v>309</v>
       </c>
       <c r="Q93" s="1"/>
@@ -5740,11 +5743,11 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" ht="30" spans="1:26">
+    <row r="98" ht="42.75" spans="1:26">
       <c r="A98" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="2" t="s">
         <v>319</v>
       </c>
       <c r="C98" s="1"/>
@@ -5759,10 +5762,10 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="O98" s="6" t="s">
+      <c r="O98" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="P98" s="8" t="s">
+      <c r="P98" s="7" t="s">
         <v>321</v>
       </c>
       <c r="Q98" s="1"/>
@@ -5776,11 +5779,11 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" ht="28.5" spans="1:26">
+    <row r="99" ht="57" spans="1:26">
       <c r="A99" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C99" s="1"/>
@@ -5795,10 +5798,10 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
-      <c r="O99" s="6" t="s">
+      <c r="O99" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="P99" s="6" t="s">
+      <c r="P99" s="2" t="s">
         <v>325</v>
       </c>
       <c r="Q99" s="1"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="332">
   <si>
     <t>English</t>
   </si>
@@ -1216,6 +1216,24 @@
   <si>
     <t>蛇怪:
 撿到它的玩家會被石化直到下次會議結束</t>
+  </si>
+  <si>
+    <t>optionOn</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>开启</t>
+  </si>
+  <si>
+    <t>optionOff</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>关闭</t>
   </si>
 </sst>
 </file>
@@ -2354,8 +2372,8 @@
   <sheetPr/>
   <dimension ref="A1:Z231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
-      <selection activeCell="O91" sqref="O91"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15"/>
@@ -5844,8 +5862,12 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101" spans="1:26">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -5858,7 +5880,9 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
+      <c r="O101" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
@@ -5872,8 +5896,12 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -5886,7 +5914,9 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
+      <c r="O102" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
